--- a/RMI/RMI/media/Reporte/REPORTE_MENSUAL_INSTRUCTOR_Febrero_Cata.xlsx
+++ b/RMI/RMI/media/Reporte/REPORTE_MENSUAL_INSTRUCTOR_Febrero_Cata.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="117">
   <si>
     <t xml:space="preserve">    </t>
   </si>
@@ -81,10 +81,6 @@
   </si>
   <si>
     <t>D</t>
-  </si>
-  <si>
-    <t>7:00
-13:00</t>
   </si>
   <si>
     <t>OTRAS ACTIVIDADES</t>
@@ -291,50 +287,6 @@
     <t>Yair Alexis Guatapo Palechor</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="6"/>
-        <color theme="8" tint="-0.499984740745262"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>APLICAR LOS ESTÁNDARES DE CALIDAD INVOLUCRADOS EN LOS PROCESOS DEDESARROLLO DE SOFTWARE, SIGUIENDO EL PLAN ESTABLECIDO PARA MANTENER LAINTEGRIDAD DE LOS PRODUCTOS DE TRABAJO DEFINIDOS, SEGÚN LAS PRÁCTICASDE CONFIGURACIÓN ESTABLECIDAS POR LA EMPRESA</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="6"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> / </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="6"/>
-        <color theme="9" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">ELABORAR INSTRUMENTOS E INSTRUCTIVOS, REQUERIDOS POR EL ASEGURAMIENTODE LA CALIDAD, PARA DOCUMENTAR Y EVALUAR LOS PROCESOS DE DESARROLLO DESOFTWARE, DE ACUERDO CON LAS NORMAS Y </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="6"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>PROCEDIMIENTOS ESTABLECIDASPOR LA EMPRESA.</t>
-    </r>
-  </si>
-  <si>
     <t>MELIZA JHOHANA BETANCUR MORENO</t>
   </si>
   <si>
@@ -396,6 +348,71 @@
   </si>
   <si>
     <t>Seguimiento a Etapa Practica</t>
+  </si>
+  <si>
+    <t>Seguimiento Etapa Practica Aprendiz: Danitza Alejandra Mora de la ficha 679957</t>
+  </si>
+  <si>
+    <t>8:00    10:00</t>
+  </si>
+  <si>
+    <t>ESP. SEGURIDAD DE BASE DE DATOS</t>
+  </si>
+  <si>
+    <t>Elaborar la documentación técnica de la seguridad de la información de las bases de datos según procedimientos de la organización y normas internacionales</t>
+  </si>
+  <si>
+    <t>07:00
+13:00</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="6"/>
+        <color theme="8" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>APLICAR LOS ESTÁNDARES DE CALIDAD INVOLUCRADOS EN LOS PROCESOS DEDESARROLLO DE SOFTWARE, SIGUIENDO EL PLAN ESTABLECIDO PARA MANTENER LAINTEGRIDAD DE LOS PRODUCTOS DE TRABAJO DEFINIDOS, SEGÚN LAS PRÁCTICASDE CONFIGURACIÓN ESTABLECIDAS POR LA EMPRESA</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="6"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="6"/>
+        <color rgb="FF92D050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ELABORAR INSTRUMENTOS E INSTRUCTIVOS, REQUERIDOS POR EL ASEGURAMIENTODE LA CALIDAD, PARA DOCUMENTAR Y EVALUAR LOS PROCESOS DE DESARROLLO DESOFTWARE, DE ACUERDO CON LAS NORMAS Y PROCEDIMIENTOS ESTABLECIDASPOR LA EMPRESA.</t>
+    </r>
+  </si>
+  <si>
+    <t>DAYAN STIVEN SOLARTE LARA</t>
+  </si>
+  <si>
+    <t>MARLON DIVER ANAYA DE LA CRUZ</t>
+  </si>
+  <si>
+    <t>DIEGO HERNAN BOJORGE CASTILLO</t>
+  </si>
+  <si>
+    <t>RENE RUANO CORDOBA</t>
+  </si>
+  <si>
+    <t>cristian felipe orosco yacumal</t>
   </si>
 </sst>
 </file>
@@ -686,13 +703,13 @@
     <font>
       <b/>
       <sz val="6"/>
-      <color theme="9" tint="-0.249977111117893"/>
+      <color rgb="FF92D050"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -765,8 +782,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="73">
+  <borders count="82">
     <border>
       <left/>
       <right/>
@@ -1349,28 +1372,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -1676,6 +1677,121 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1684,7 +1800,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="201">
+  <cellXfs count="213">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1849,102 +1965,226 @@
     <xf numFmtId="0" fontId="20" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="9" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="12" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="30" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="29" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="20" fontId="30" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="39" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="11" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="29" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="26" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="30" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="30" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="26" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1952,6 +2192,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1962,12 +2208,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2000,162 +2240,74 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="13" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="13" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="13" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="13" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="19" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="29" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="29" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="39" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="29" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="11" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -2189,7 +2341,7 @@
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2246,7 +2398,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2578,10 +2730,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:AG1026"/>
+  <dimension ref="A2:AG1031"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D43" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="Z65" sqref="Z65"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1"/>
@@ -2607,34 +2759,34 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:33" ht="38.25" customHeight="1">
-      <c r="A2" s="135" t="s">
+      <c r="A2" s="183" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="189"/>
-      <c r="C2" s="189"/>
-      <c r="D2" s="160" t="s">
-        <v>48</v>
-      </c>
-      <c r="E2" s="161"/>
-      <c r="F2" s="161"/>
-      <c r="G2" s="161"/>
-      <c r="H2" s="161"/>
-      <c r="I2" s="161"/>
-      <c r="J2" s="161"/>
-      <c r="K2" s="161"/>
-      <c r="L2" s="161"/>
-      <c r="M2" s="161"/>
-      <c r="N2" s="161"/>
-      <c r="O2" s="161"/>
-      <c r="P2" s="161"/>
-      <c r="Q2" s="161"/>
-      <c r="R2" s="161"/>
-      <c r="S2" s="161"/>
-      <c r="T2" s="161"/>
-      <c r="U2" s="161"/>
-      <c r="V2" s="161"/>
-      <c r="W2" s="161"/>
-      <c r="X2" s="161"/>
+      <c r="B2" s="110"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="142" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="143"/>
+      <c r="F2" s="143"/>
+      <c r="G2" s="143"/>
+      <c r="H2" s="143"/>
+      <c r="I2" s="143"/>
+      <c r="J2" s="143"/>
+      <c r="K2" s="143"/>
+      <c r="L2" s="143"/>
+      <c r="M2" s="143"/>
+      <c r="N2" s="143"/>
+      <c r="O2" s="143"/>
+      <c r="P2" s="143"/>
+      <c r="Q2" s="143"/>
+      <c r="R2" s="143"/>
+      <c r="S2" s="143"/>
+      <c r="T2" s="143"/>
+      <c r="U2" s="143"/>
+      <c r="V2" s="143"/>
+      <c r="W2" s="143"/>
+      <c r="X2" s="143"/>
       <c r="Y2" s="1"/>
       <c r="Z2" s="2"/>
       <c r="AA2" s="1"/>
@@ -2646,38 +2798,38 @@
       <c r="AG2" s="1"/>
     </row>
     <row r="3" spans="1:33" ht="24" customHeight="1">
-      <c r="A3" s="136"/>
-      <c r="B3" s="189"/>
-      <c r="C3" s="189"/>
-      <c r="D3" s="191" t="s">
-        <v>104</v>
-      </c>
-      <c r="E3" s="191"/>
-      <c r="F3" s="191"/>
-      <c r="G3" s="192" t="s">
+      <c r="A3" s="184"/>
+      <c r="B3" s="110"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="112" t="s">
+        <v>102</v>
+      </c>
+      <c r="E3" s="112"/>
+      <c r="F3" s="112"/>
+      <c r="G3" s="113" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="113"/>
+      <c r="I3" s="113"/>
+      <c r="J3" s="113"/>
+      <c r="K3" s="113"/>
+      <c r="L3" s="113"/>
+      <c r="M3" s="113"/>
+      <c r="N3" s="113"/>
+      <c r="O3" s="113" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="192"/>
-      <c r="I3" s="192"/>
-      <c r="J3" s="192"/>
-      <c r="K3" s="192"/>
-      <c r="L3" s="192"/>
-      <c r="M3" s="192"/>
-      <c r="N3" s="192"/>
-      <c r="O3" s="192" t="s">
-        <v>31</v>
-      </c>
-      <c r="P3" s="192"/>
-      <c r="Q3" s="192"/>
-      <c r="R3" s="192"/>
-      <c r="S3" s="192"/>
-      <c r="T3" s="192"/>
-      <c r="U3" s="192"/>
-      <c r="V3" s="192"/>
-      <c r="W3" s="192" t="s">
-        <v>33</v>
-      </c>
-      <c r="X3" s="192"/>
+      <c r="P3" s="113"/>
+      <c r="Q3" s="113"/>
+      <c r="R3" s="113"/>
+      <c r="S3" s="113"/>
+      <c r="T3" s="113"/>
+      <c r="U3" s="113"/>
+      <c r="V3" s="113"/>
+      <c r="W3" s="113" t="s">
+        <v>32</v>
+      </c>
+      <c r="X3" s="113"/>
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
       <c r="AA3" s="1"/>
@@ -2689,36 +2841,36 @@
       <c r="AG3" s="1"/>
     </row>
     <row r="4" spans="1:33" ht="24" customHeight="1">
-      <c r="A4" s="136"/>
-      <c r="B4" s="189"/>
-      <c r="C4" s="189"/>
-      <c r="D4" s="191"/>
-      <c r="E4" s="191"/>
-      <c r="F4" s="191"/>
-      <c r="G4" s="193" t="s">
+      <c r="A4" s="184"/>
+      <c r="B4" s="110"/>
+      <c r="C4" s="110"/>
+      <c r="D4" s="112"/>
+      <c r="E4" s="112"/>
+      <c r="F4" s="112"/>
+      <c r="G4" s="114" t="s">
+        <v>48</v>
+      </c>
+      <c r="H4" s="114"/>
+      <c r="I4" s="114"/>
+      <c r="J4" s="114"/>
+      <c r="K4" s="114"/>
+      <c r="L4" s="114"/>
+      <c r="M4" s="114"/>
+      <c r="N4" s="114"/>
+      <c r="O4" s="115" t="s">
         <v>49</v>
       </c>
-      <c r="H4" s="193"/>
-      <c r="I4" s="193"/>
-      <c r="J4" s="193"/>
-      <c r="K4" s="193"/>
-      <c r="L4" s="193"/>
-      <c r="M4" s="193"/>
-      <c r="N4" s="193"/>
-      <c r="O4" s="194" t="s">
+      <c r="P4" s="116"/>
+      <c r="Q4" s="116"/>
+      <c r="R4" s="116"/>
+      <c r="S4" s="116"/>
+      <c r="T4" s="116"/>
+      <c r="U4" s="116"/>
+      <c r="V4" s="117"/>
+      <c r="W4" s="169" t="s">
         <v>50</v>
       </c>
-      <c r="P4" s="195"/>
-      <c r="Q4" s="195"/>
-      <c r="R4" s="195"/>
-      <c r="S4" s="195"/>
-      <c r="T4" s="195"/>
-      <c r="U4" s="195"/>
-      <c r="V4" s="196"/>
-      <c r="W4" s="121" t="s">
-        <v>51</v>
-      </c>
-      <c r="X4" s="122"/>
+      <c r="X4" s="170"/>
       <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
       <c r="AA4" s="1"/>
@@ -2730,36 +2882,36 @@
       <c r="AG4" s="1"/>
     </row>
     <row r="5" spans="1:33" ht="18.75" customHeight="1">
-      <c r="A5" s="136"/>
-      <c r="B5" s="190" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="190"/>
-      <c r="D5" s="191"/>
-      <c r="E5" s="191"/>
-      <c r="F5" s="191"/>
-      <c r="G5" s="192" t="s">
+      <c r="A5" s="184"/>
+      <c r="B5" s="111" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="111"/>
+      <c r="D5" s="112"/>
+      <c r="E5" s="112"/>
+      <c r="F5" s="112"/>
+      <c r="G5" s="113" t="s">
         <v>1</v>
       </c>
-      <c r="H5" s="192"/>
-      <c r="I5" s="192"/>
-      <c r="J5" s="192"/>
-      <c r="K5" s="192"/>
-      <c r="L5" s="192"/>
-      <c r="M5" s="192"/>
-      <c r="N5" s="192"/>
-      <c r="O5" s="197" t="s">
-        <v>32</v>
-      </c>
-      <c r="P5" s="197"/>
-      <c r="Q5" s="197"/>
-      <c r="R5" s="197"/>
-      <c r="S5" s="197"/>
-      <c r="T5" s="197"/>
-      <c r="U5" s="197"/>
-      <c r="V5" s="197"/>
-      <c r="W5" s="123"/>
-      <c r="X5" s="124"/>
+      <c r="H5" s="113"/>
+      <c r="I5" s="113"/>
+      <c r="J5" s="113"/>
+      <c r="K5" s="113"/>
+      <c r="L5" s="113"/>
+      <c r="M5" s="113"/>
+      <c r="N5" s="113"/>
+      <c r="O5" s="118" t="s">
+        <v>31</v>
+      </c>
+      <c r="P5" s="118"/>
+      <c r="Q5" s="118"/>
+      <c r="R5" s="118"/>
+      <c r="S5" s="118"/>
+      <c r="T5" s="118"/>
+      <c r="U5" s="118"/>
+      <c r="V5" s="118"/>
+      <c r="W5" s="171"/>
+      <c r="X5" s="172"/>
       <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
       <c r="AA5" s="1"/>
@@ -2771,34 +2923,34 @@
       <c r="AG5" s="1"/>
     </row>
     <row r="6" spans="1:33" ht="22.5" customHeight="1">
-      <c r="A6" s="136"/>
-      <c r="B6" s="190"/>
-      <c r="C6" s="190"/>
-      <c r="D6" s="191"/>
-      <c r="E6" s="191"/>
-      <c r="F6" s="191"/>
-      <c r="G6" s="193">
+      <c r="A6" s="184"/>
+      <c r="B6" s="111"/>
+      <c r="C6" s="111"/>
+      <c r="D6" s="112"/>
+      <c r="E6" s="112"/>
+      <c r="F6" s="112"/>
+      <c r="G6" s="114">
         <v>34329059</v>
       </c>
-      <c r="H6" s="193"/>
-      <c r="I6" s="193"/>
-      <c r="J6" s="193"/>
-      <c r="K6" s="193"/>
-      <c r="L6" s="193"/>
-      <c r="M6" s="193"/>
-      <c r="N6" s="193"/>
-      <c r="O6" s="193">
+      <c r="H6" s="114"/>
+      <c r="I6" s="114"/>
+      <c r="J6" s="114"/>
+      <c r="K6" s="114"/>
+      <c r="L6" s="114"/>
+      <c r="M6" s="114"/>
+      <c r="N6" s="114"/>
+      <c r="O6" s="114">
         <v>3002761491</v>
       </c>
-      <c r="P6" s="193"/>
-      <c r="Q6" s="193"/>
-      <c r="R6" s="193"/>
-      <c r="S6" s="193"/>
-      <c r="T6" s="193"/>
-      <c r="U6" s="193"/>
-      <c r="V6" s="193"/>
-      <c r="W6" s="125"/>
-      <c r="X6" s="126"/>
+      <c r="P6" s="114"/>
+      <c r="Q6" s="114"/>
+      <c r="R6" s="114"/>
+      <c r="S6" s="114"/>
+      <c r="T6" s="114"/>
+      <c r="U6" s="114"/>
+      <c r="V6" s="114"/>
+      <c r="W6" s="173"/>
+      <c r="X6" s="174"/>
       <c r="Y6" s="1"/>
       <c r="Z6" s="1"/>
       <c r="AA6" s="1"/>
@@ -2810,30 +2962,30 @@
       <c r="AG6" s="1"/>
     </row>
     <row r="7" spans="1:33" ht="15" customHeight="1">
-      <c r="A7" s="136"/>
-      <c r="B7" s="190"/>
-      <c r="C7" s="190"/>
-      <c r="D7" s="191"/>
-      <c r="E7" s="191"/>
-      <c r="F7" s="191"/>
-      <c r="G7" s="127"/>
-      <c r="H7" s="128"/>
-      <c r="I7" s="128"/>
-      <c r="J7" s="128"/>
-      <c r="K7" s="128"/>
-      <c r="L7" s="128"/>
-      <c r="M7" s="128"/>
-      <c r="N7" s="128"/>
-      <c r="O7" s="128"/>
-      <c r="P7" s="128"/>
-      <c r="Q7" s="128"/>
-      <c r="R7" s="128"/>
-      <c r="S7" s="128"/>
-      <c r="T7" s="128"/>
-      <c r="U7" s="128"/>
-      <c r="V7" s="128"/>
-      <c r="W7" s="128"/>
-      <c r="X7" s="129"/>
+      <c r="A7" s="184"/>
+      <c r="B7" s="111"/>
+      <c r="C7" s="111"/>
+      <c r="D7" s="112"/>
+      <c r="E7" s="112"/>
+      <c r="F7" s="112"/>
+      <c r="G7" s="175"/>
+      <c r="H7" s="176"/>
+      <c r="I7" s="176"/>
+      <c r="J7" s="176"/>
+      <c r="K7" s="176"/>
+      <c r="L7" s="176"/>
+      <c r="M7" s="176"/>
+      <c r="N7" s="176"/>
+      <c r="O7" s="176"/>
+      <c r="P7" s="176"/>
+      <c r="Q7" s="176"/>
+      <c r="R7" s="176"/>
+      <c r="S7" s="176"/>
+      <c r="T7" s="176"/>
+      <c r="U7" s="176"/>
+      <c r="V7" s="176"/>
+      <c r="W7" s="176"/>
+      <c r="X7" s="177"/>
       <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
       <c r="AA7" s="1"/>
@@ -2859,15 +3011,15 @@
       <c r="L8" s="17"/>
       <c r="M8" s="17"/>
       <c r="N8" s="17"/>
-      <c r="O8" s="119"/>
-      <c r="P8" s="120"/>
-      <c r="Q8" s="120"/>
-      <c r="R8" s="120"/>
-      <c r="S8" s="120"/>
-      <c r="T8" s="120"/>
-      <c r="U8" s="120"/>
-      <c r="V8" s="120"/>
-      <c r="W8" s="120"/>
+      <c r="O8" s="167"/>
+      <c r="P8" s="168"/>
+      <c r="Q8" s="168"/>
+      <c r="R8" s="168"/>
+      <c r="S8" s="168"/>
+      <c r="T8" s="168"/>
+      <c r="U8" s="168"/>
+      <c r="V8" s="168"/>
+      <c r="W8" s="168"/>
       <c r="X8" s="17"/>
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
@@ -2880,32 +3032,32 @@
       <c r="AG8" s="1"/>
     </row>
     <row r="9" spans="1:33" ht="35.25" customHeight="1">
-      <c r="A9" s="130" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="131"/>
-      <c r="C9" s="131"/>
-      <c r="D9" s="131"/>
-      <c r="E9" s="131"/>
-      <c r="F9" s="131"/>
-      <c r="G9" s="131"/>
-      <c r="H9" s="131"/>
-      <c r="I9" s="131"/>
-      <c r="J9" s="131"/>
-      <c r="K9" s="131"/>
-      <c r="L9" s="131"/>
-      <c r="M9" s="131"/>
-      <c r="N9" s="131"/>
-      <c r="O9" s="131"/>
-      <c r="P9" s="131"/>
-      <c r="Q9" s="131"/>
-      <c r="R9" s="131"/>
-      <c r="S9" s="131"/>
-      <c r="T9" s="131"/>
-      <c r="U9" s="131"/>
-      <c r="V9" s="131"/>
-      <c r="W9" s="131"/>
-      <c r="X9" s="132"/>
+      <c r="A9" s="178" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="179"/>
+      <c r="C9" s="179"/>
+      <c r="D9" s="179"/>
+      <c r="E9" s="179"/>
+      <c r="F9" s="179"/>
+      <c r="G9" s="179"/>
+      <c r="H9" s="179"/>
+      <c r="I9" s="179"/>
+      <c r="J9" s="179"/>
+      <c r="K9" s="179"/>
+      <c r="L9" s="179"/>
+      <c r="M9" s="179"/>
+      <c r="N9" s="179"/>
+      <c r="O9" s="179"/>
+      <c r="P9" s="179"/>
+      <c r="Q9" s="179"/>
+      <c r="R9" s="179"/>
+      <c r="S9" s="179"/>
+      <c r="T9" s="179"/>
+      <c r="U9" s="179"/>
+      <c r="V9" s="179"/>
+      <c r="W9" s="179"/>
+      <c r="X9" s="180"/>
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
       <c r="AA9" s="1"/>
@@ -2917,61 +3069,61 @@
       <c r="AG9" s="1"/>
     </row>
     <row r="10" spans="1:33" ht="38.25" customHeight="1">
-      <c r="A10" s="133" t="s">
+      <c r="A10" s="181" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="137" t="s">
+      <c r="B10" s="154" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="137" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" s="138" t="s">
+      <c r="C10" s="154" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="161" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="137" t="s">
+      <c r="E10" s="154" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="137" t="s">
+      <c r="F10" s="154" t="s">
         <v>4</v>
       </c>
-      <c r="G10" s="137" t="s">
+      <c r="G10" s="154" t="s">
         <v>8</v>
       </c>
-      <c r="H10" s="109" t="s">
+      <c r="H10" s="163" t="s">
         <v>6</v>
       </c>
-      <c r="I10" s="102"/>
-      <c r="J10" s="102"/>
-      <c r="K10" s="102"/>
-      <c r="L10" s="102"/>
-      <c r="M10" s="102"/>
+      <c r="I10" s="149"/>
+      <c r="J10" s="149"/>
+      <c r="K10" s="149"/>
+      <c r="L10" s="149"/>
+      <c r="M10" s="149"/>
       <c r="N10" s="18"/>
-      <c r="O10" s="116" t="s">
+      <c r="O10" s="120" t="s">
         <v>11</v>
       </c>
-      <c r="P10" s="114" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q10" s="114" t="s">
+      <c r="P10" s="122" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q10" s="122" t="s">
         <v>9</v>
       </c>
-      <c r="R10" s="137" t="s">
+      <c r="R10" s="154" t="s">
         <v>10</v>
       </c>
-      <c r="S10" s="101" t="s">
+      <c r="S10" s="148" t="s">
         <v>12</v>
       </c>
-      <c r="T10" s="102"/>
-      <c r="U10" s="102"/>
-      <c r="V10" s="102"/>
-      <c r="W10" s="102"/>
-      <c r="X10" s="168"/>
-      <c r="Y10" s="103" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z10" s="104"/>
-      <c r="AA10" s="104"/>
+      <c r="T10" s="149"/>
+      <c r="U10" s="149"/>
+      <c r="V10" s="149"/>
+      <c r="W10" s="149"/>
+      <c r="X10" s="150"/>
+      <c r="Y10" s="188" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z10" s="189"/>
+      <c r="AA10" s="189"/>
       <c r="AB10" s="1"/>
       <c r="AC10" s="1"/>
       <c r="AD10" s="1"/>
@@ -2980,13 +3132,13 @@
       <c r="AG10" s="1"/>
     </row>
     <row r="11" spans="1:33" ht="15.75" customHeight="1">
-      <c r="A11" s="134"/>
-      <c r="B11" s="117"/>
-      <c r="C11" s="117"/>
-      <c r="D11" s="139"/>
-      <c r="E11" s="117"/>
-      <c r="F11" s="117"/>
-      <c r="G11" s="117"/>
+      <c r="A11" s="182"/>
+      <c r="B11" s="155"/>
+      <c r="C11" s="155"/>
+      <c r="D11" s="162"/>
+      <c r="E11" s="155"/>
+      <c r="F11" s="155"/>
+      <c r="G11" s="155"/>
       <c r="H11" s="39" t="s">
         <v>13</v>
       </c>
@@ -3008,19 +3160,19 @@
       <c r="N11" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="O11" s="117"/>
-      <c r="P11" s="118"/>
-      <c r="Q11" s="115"/>
-      <c r="R11" s="117"/>
-      <c r="S11" s="169"/>
-      <c r="T11" s="170"/>
-      <c r="U11" s="170"/>
-      <c r="V11" s="170"/>
-      <c r="W11" s="170"/>
-      <c r="X11" s="171"/>
-      <c r="Y11" s="105"/>
-      <c r="Z11" s="106"/>
-      <c r="AA11" s="106"/>
+      <c r="O11" s="155"/>
+      <c r="P11" s="166"/>
+      <c r="Q11" s="165"/>
+      <c r="R11" s="155"/>
+      <c r="S11" s="151"/>
+      <c r="T11" s="152"/>
+      <c r="U11" s="152"/>
+      <c r="V11" s="152"/>
+      <c r="W11" s="152"/>
+      <c r="X11" s="153"/>
+      <c r="Y11" s="190"/>
+      <c r="Z11" s="191"/>
+      <c r="AA11" s="191"/>
       <c r="AB11" s="1"/>
       <c r="AC11" s="1"/>
       <c r="AD11" s="1"/>
@@ -3065,8 +3217,8 @@
       <c r="X12" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="Y12" s="101"/>
-      <c r="Z12" s="102"/>
+      <c r="Y12" s="148"/>
+      <c r="Z12" s="149"/>
       <c r="AA12" s="60"/>
       <c r="AB12" s="1"/>
       <c r="AC12" s="1"/>
@@ -3076,48 +3228,48 @@
       <c r="AG12" s="1"/>
     </row>
     <row r="13" spans="1:33" ht="16.5" customHeight="1">
-      <c r="A13" s="94">
+      <c r="A13" s="210">
         <v>1196037</v>
       </c>
-      <c r="B13" s="97" t="s">
+      <c r="B13" s="92" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="92" t="s">
         <v>52</v>
       </c>
-      <c r="C13" s="97" t="s">
+      <c r="D13" s="92">
+        <v>12</v>
+      </c>
+      <c r="E13" s="92" t="s">
         <v>53</v>
       </c>
-      <c r="D13" s="97">
+      <c r="F13" s="98" t="s">
+        <v>54</v>
+      </c>
+      <c r="G13" s="98">
+        <v>9</v>
+      </c>
+      <c r="H13" s="99"/>
+      <c r="I13" s="99"/>
+      <c r="J13" s="99" t="s">
+        <v>55</v>
+      </c>
+      <c r="K13" s="99" t="s">
+        <v>55</v>
+      </c>
+      <c r="L13" s="99"/>
+      <c r="M13" s="99"/>
+      <c r="N13" s="99"/>
+      <c r="O13" s="98" t="s">
+        <v>56</v>
+      </c>
+      <c r="P13" s="144">
+        <v>48</v>
+      </c>
+      <c r="Q13" s="144">
         <v>12</v>
       </c>
-      <c r="E13" s="97" t="s">
-        <v>54</v>
-      </c>
-      <c r="F13" s="90" t="s">
-        <v>55</v>
-      </c>
-      <c r="G13" s="90">
-        <v>9</v>
-      </c>
-      <c r="H13" s="87"/>
-      <c r="I13" s="87"/>
-      <c r="J13" s="87" t="s">
-        <v>56</v>
-      </c>
-      <c r="K13" s="87" t="s">
-        <v>56</v>
-      </c>
-      <c r="L13" s="87"/>
-      <c r="M13" s="87"/>
-      <c r="N13" s="87"/>
-      <c r="O13" s="90" t="s">
-        <v>57</v>
-      </c>
-      <c r="P13" s="91">
-        <v>48</v>
-      </c>
-      <c r="Q13" s="91">
-        <v>12</v>
-      </c>
-      <c r="R13" s="91">
+      <c r="R13" s="144">
         <f>Q13+P13</f>
         <v>60</v>
       </c>
@@ -3136,10 +3288,10 @@
         <v>4</v>
       </c>
       <c r="Y13" s="70" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Z13" s="78" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AA13" s="3"/>
       <c r="AB13" s="3"/>
@@ -3150,24 +3302,24 @@
       <c r="AG13" s="3"/>
     </row>
     <row r="14" spans="1:33" ht="16.5" customHeight="1">
-      <c r="A14" s="95"/>
-      <c r="B14" s="88"/>
-      <c r="C14" s="88"/>
-      <c r="D14" s="88"/>
-      <c r="E14" s="88"/>
-      <c r="F14" s="88"/>
-      <c r="G14" s="88"/>
-      <c r="H14" s="88"/>
-      <c r="I14" s="88"/>
-      <c r="J14" s="88"/>
-      <c r="K14" s="88"/>
-      <c r="L14" s="88"/>
-      <c r="M14" s="88"/>
-      <c r="N14" s="88"/>
-      <c r="O14" s="88"/>
-      <c r="P14" s="92"/>
-      <c r="Q14" s="92"/>
-      <c r="R14" s="92"/>
+      <c r="A14" s="211"/>
+      <c r="B14" s="93"/>
+      <c r="C14" s="93"/>
+      <c r="D14" s="93"/>
+      <c r="E14" s="93"/>
+      <c r="F14" s="93"/>
+      <c r="G14" s="93"/>
+      <c r="H14" s="93"/>
+      <c r="I14" s="93"/>
+      <c r="J14" s="93"/>
+      <c r="K14" s="93"/>
+      <c r="L14" s="93"/>
+      <c r="M14" s="93"/>
+      <c r="N14" s="93"/>
+      <c r="O14" s="93"/>
+      <c r="P14" s="145"/>
+      <c r="Q14" s="145"/>
+      <c r="R14" s="145"/>
       <c r="S14" s="47">
         <v>6</v>
       </c>
@@ -3187,10 +3339,10 @@
         <v>11</v>
       </c>
       <c r="Y14" s="73" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Z14" s="79" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AA14" s="3"/>
       <c r="AB14" s="3"/>
@@ -3201,24 +3353,24 @@
       <c r="AG14" s="3"/>
     </row>
     <row r="15" spans="1:33" ht="16.5" customHeight="1">
-      <c r="A15" s="95"/>
-      <c r="B15" s="88"/>
-      <c r="C15" s="88"/>
-      <c r="D15" s="88"/>
-      <c r="E15" s="88"/>
-      <c r="F15" s="88"/>
-      <c r="G15" s="88"/>
-      <c r="H15" s="88"/>
-      <c r="I15" s="88"/>
-      <c r="J15" s="88"/>
-      <c r="K15" s="88"/>
-      <c r="L15" s="88"/>
-      <c r="M15" s="88"/>
-      <c r="N15" s="88"/>
-      <c r="O15" s="88"/>
-      <c r="P15" s="92"/>
-      <c r="Q15" s="92"/>
-      <c r="R15" s="92"/>
+      <c r="A15" s="211"/>
+      <c r="B15" s="93"/>
+      <c r="C15" s="93"/>
+      <c r="D15" s="93"/>
+      <c r="E15" s="93"/>
+      <c r="F15" s="93"/>
+      <c r="G15" s="93"/>
+      <c r="H15" s="93"/>
+      <c r="I15" s="93"/>
+      <c r="J15" s="93"/>
+      <c r="K15" s="93"/>
+      <c r="L15" s="93"/>
+      <c r="M15" s="93"/>
+      <c r="N15" s="93"/>
+      <c r="O15" s="93"/>
+      <c r="P15" s="145"/>
+      <c r="Q15" s="145"/>
+      <c r="R15" s="145"/>
       <c r="S15" s="47">
         <v>13</v>
       </c>
@@ -3238,10 +3390,10 @@
         <v>18</v>
       </c>
       <c r="Y15" s="73" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Z15" s="79" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AA15" s="3"/>
       <c r="AB15" s="3"/>
@@ -3252,24 +3404,24 @@
       <c r="AG15" s="3"/>
     </row>
     <row r="16" spans="1:33" ht="16.5" customHeight="1">
-      <c r="A16" s="95"/>
-      <c r="B16" s="88"/>
-      <c r="C16" s="88"/>
-      <c r="D16" s="88"/>
-      <c r="E16" s="88"/>
-      <c r="F16" s="88"/>
-      <c r="G16" s="88"/>
-      <c r="H16" s="88"/>
-      <c r="I16" s="88"/>
-      <c r="J16" s="88"/>
-      <c r="K16" s="88"/>
-      <c r="L16" s="88"/>
-      <c r="M16" s="88"/>
-      <c r="N16" s="88"/>
-      <c r="O16" s="88"/>
-      <c r="P16" s="92"/>
-      <c r="Q16" s="92"/>
-      <c r="R16" s="92"/>
+      <c r="A16" s="211"/>
+      <c r="B16" s="93"/>
+      <c r="C16" s="93"/>
+      <c r="D16" s="93"/>
+      <c r="E16" s="93"/>
+      <c r="F16" s="93"/>
+      <c r="G16" s="93"/>
+      <c r="H16" s="93"/>
+      <c r="I16" s="93"/>
+      <c r="J16" s="93"/>
+      <c r="K16" s="93"/>
+      <c r="L16" s="93"/>
+      <c r="M16" s="93"/>
+      <c r="N16" s="93"/>
+      <c r="O16" s="93"/>
+      <c r="P16" s="145"/>
+      <c r="Q16" s="145"/>
+      <c r="R16" s="145"/>
       <c r="S16" s="30">
         <v>20</v>
       </c>
@@ -3289,10 +3441,10 @@
         <v>25</v>
       </c>
       <c r="Y16" s="73" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Z16" s="79" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
@@ -3303,24 +3455,24 @@
       <c r="AG16" s="3"/>
     </row>
     <row r="17" spans="1:33" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A17" s="96"/>
-      <c r="B17" s="89"/>
-      <c r="C17" s="89"/>
-      <c r="D17" s="89"/>
-      <c r="E17" s="89"/>
-      <c r="F17" s="89"/>
-      <c r="G17" s="89"/>
-      <c r="H17" s="89"/>
-      <c r="I17" s="89"/>
-      <c r="J17" s="89"/>
-      <c r="K17" s="89"/>
-      <c r="L17" s="89"/>
-      <c r="M17" s="89"/>
-      <c r="N17" s="89"/>
-      <c r="O17" s="89"/>
-      <c r="P17" s="93"/>
-      <c r="Q17" s="93"/>
-      <c r="R17" s="93"/>
+      <c r="A17" s="212"/>
+      <c r="B17" s="94"/>
+      <c r="C17" s="94"/>
+      <c r="D17" s="94"/>
+      <c r="E17" s="94"/>
+      <c r="F17" s="94"/>
+      <c r="G17" s="94"/>
+      <c r="H17" s="94"/>
+      <c r="I17" s="94"/>
+      <c r="J17" s="94"/>
+      <c r="K17" s="94"/>
+      <c r="L17" s="94"/>
+      <c r="M17" s="94"/>
+      <c r="N17" s="94"/>
+      <c r="O17" s="94"/>
+      <c r="P17" s="146"/>
+      <c r="Q17" s="146"/>
+      <c r="R17" s="146"/>
       <c r="S17" s="32">
         <v>27</v>
       </c>
@@ -3331,10 +3483,10 @@
       <c r="V17" s="34"/>
       <c r="W17" s="34"/>
       <c r="X17" s="68"/>
-      <c r="Y17" s="81" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z17" s="82"/>
+      <c r="Y17" s="80" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z17" s="81"/>
       <c r="AA17" s="3"/>
       <c r="AB17" s="3"/>
       <c r="AC17" s="3"/>
@@ -3344,48 +3496,48 @@
       <c r="AG17" s="3"/>
     </row>
     <row r="18" spans="1:33" ht="16.5" customHeight="1">
-      <c r="A18" s="94">
+      <c r="A18" s="210">
         <v>1196037</v>
       </c>
-      <c r="B18" s="97" t="s">
+      <c r="B18" s="92" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="92" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="97" t="s">
+      <c r="D18" s="92">
+        <v>12</v>
+      </c>
+      <c r="E18" s="92" t="s">
         <v>53</v>
       </c>
-      <c r="D18" s="97">
+      <c r="F18" s="98" t="s">
+        <v>54</v>
+      </c>
+      <c r="G18" s="98">
+        <v>11</v>
+      </c>
+      <c r="H18" s="99"/>
+      <c r="I18" s="99"/>
+      <c r="J18" s="99" t="s">
+        <v>61</v>
+      </c>
+      <c r="K18" s="99" t="s">
+        <v>61</v>
+      </c>
+      <c r="L18" s="99"/>
+      <c r="M18" s="99"/>
+      <c r="N18" s="99"/>
+      <c r="O18" s="98" t="s">
+        <v>56</v>
+      </c>
+      <c r="P18" s="144">
+        <v>48</v>
+      </c>
+      <c r="Q18" s="144">
         <v>12</v>
       </c>
-      <c r="E18" s="97" t="s">
-        <v>54</v>
-      </c>
-      <c r="F18" s="90" t="s">
-        <v>55</v>
-      </c>
-      <c r="G18" s="90">
-        <v>11</v>
-      </c>
-      <c r="H18" s="87"/>
-      <c r="I18" s="87"/>
-      <c r="J18" s="87" t="s">
-        <v>62</v>
-      </c>
-      <c r="K18" s="87" t="s">
-        <v>62</v>
-      </c>
-      <c r="L18" s="87"/>
-      <c r="M18" s="87"/>
-      <c r="N18" s="87"/>
-      <c r="O18" s="90" t="s">
-        <v>57</v>
-      </c>
-      <c r="P18" s="91">
-        <v>48</v>
-      </c>
-      <c r="Q18" s="91">
-        <v>12</v>
-      </c>
-      <c r="R18" s="91">
+      <c r="R18" s="144">
         <f>Q18+P18</f>
         <v>60</v>
       </c>
@@ -3404,13 +3556,13 @@
         <v>4</v>
       </c>
       <c r="Y18" s="70" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Z18" s="71" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AA18" s="72" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AB18" s="3"/>
       <c r="AC18" s="3"/>
@@ -3420,24 +3572,24 @@
       <c r="AG18" s="3"/>
     </row>
     <row r="19" spans="1:33" ht="16.5" customHeight="1">
-      <c r="A19" s="95"/>
-      <c r="B19" s="88"/>
-      <c r="C19" s="88"/>
-      <c r="D19" s="88"/>
-      <c r="E19" s="88"/>
-      <c r="F19" s="88"/>
-      <c r="G19" s="88"/>
-      <c r="H19" s="88"/>
-      <c r="I19" s="88"/>
-      <c r="J19" s="88"/>
-      <c r="K19" s="88"/>
-      <c r="L19" s="88"/>
-      <c r="M19" s="88"/>
-      <c r="N19" s="88"/>
-      <c r="O19" s="88"/>
-      <c r="P19" s="92"/>
-      <c r="Q19" s="92"/>
-      <c r="R19" s="92"/>
+      <c r="A19" s="211"/>
+      <c r="B19" s="93"/>
+      <c r="C19" s="93"/>
+      <c r="D19" s="93"/>
+      <c r="E19" s="93"/>
+      <c r="F19" s="93"/>
+      <c r="G19" s="93"/>
+      <c r="H19" s="93"/>
+      <c r="I19" s="93"/>
+      <c r="J19" s="93"/>
+      <c r="K19" s="93"/>
+      <c r="L19" s="93"/>
+      <c r="M19" s="93"/>
+      <c r="N19" s="93"/>
+      <c r="O19" s="93"/>
+      <c r="P19" s="145"/>
+      <c r="Q19" s="145"/>
+      <c r="R19" s="145"/>
       <c r="S19" s="47">
         <v>6</v>
       </c>
@@ -3457,10 +3609,10 @@
         <v>11</v>
       </c>
       <c r="Y19" s="73" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Z19" s="69" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AA19" s="74"/>
       <c r="AB19" s="3"/>
@@ -3471,24 +3623,24 @@
       <c r="AG19" s="3"/>
     </row>
     <row r="20" spans="1:33" ht="16.5" customHeight="1">
-      <c r="A20" s="95"/>
-      <c r="B20" s="88"/>
-      <c r="C20" s="88"/>
-      <c r="D20" s="88"/>
-      <c r="E20" s="88"/>
-      <c r="F20" s="88"/>
-      <c r="G20" s="88"/>
-      <c r="H20" s="88"/>
-      <c r="I20" s="88"/>
-      <c r="J20" s="88"/>
-      <c r="K20" s="88"/>
-      <c r="L20" s="88"/>
-      <c r="M20" s="88"/>
-      <c r="N20" s="88"/>
-      <c r="O20" s="88"/>
-      <c r="P20" s="92"/>
-      <c r="Q20" s="92"/>
-      <c r="R20" s="92"/>
+      <c r="A20" s="211"/>
+      <c r="B20" s="93"/>
+      <c r="C20" s="93"/>
+      <c r="D20" s="93"/>
+      <c r="E20" s="93"/>
+      <c r="F20" s="93"/>
+      <c r="G20" s="93"/>
+      <c r="H20" s="93"/>
+      <c r="I20" s="93"/>
+      <c r="J20" s="93"/>
+      <c r="K20" s="93"/>
+      <c r="L20" s="93"/>
+      <c r="M20" s="93"/>
+      <c r="N20" s="93"/>
+      <c r="O20" s="93"/>
+      <c r="P20" s="145"/>
+      <c r="Q20" s="145"/>
+      <c r="R20" s="145"/>
       <c r="S20" s="47">
         <v>13</v>
       </c>
@@ -3508,10 +3660,10 @@
         <v>18</v>
       </c>
       <c r="Y20" s="73" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Z20" s="69" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AA20" s="74"/>
       <c r="AB20" s="3"/>
@@ -3522,24 +3674,24 @@
       <c r="AG20" s="3"/>
     </row>
     <row r="21" spans="1:33" ht="16.5" customHeight="1">
-      <c r="A21" s="95"/>
-      <c r="B21" s="88"/>
-      <c r="C21" s="88"/>
-      <c r="D21" s="88"/>
-      <c r="E21" s="88"/>
-      <c r="F21" s="88"/>
-      <c r="G21" s="88"/>
-      <c r="H21" s="88"/>
-      <c r="I21" s="88"/>
-      <c r="J21" s="88"/>
-      <c r="K21" s="88"/>
-      <c r="L21" s="88"/>
-      <c r="M21" s="88"/>
-      <c r="N21" s="88"/>
-      <c r="O21" s="88"/>
-      <c r="P21" s="92"/>
-      <c r="Q21" s="92"/>
-      <c r="R21" s="92"/>
+      <c r="A21" s="211"/>
+      <c r="B21" s="93"/>
+      <c r="C21" s="93"/>
+      <c r="D21" s="93"/>
+      <c r="E21" s="93"/>
+      <c r="F21" s="93"/>
+      <c r="G21" s="93"/>
+      <c r="H21" s="93"/>
+      <c r="I21" s="93"/>
+      <c r="J21" s="93"/>
+      <c r="K21" s="93"/>
+      <c r="L21" s="93"/>
+      <c r="M21" s="93"/>
+      <c r="N21" s="93"/>
+      <c r="O21" s="93"/>
+      <c r="P21" s="145"/>
+      <c r="Q21" s="145"/>
+      <c r="R21" s="145"/>
       <c r="S21" s="30">
         <v>20</v>
       </c>
@@ -3559,10 +3711,10 @@
         <v>25</v>
       </c>
       <c r="Y21" s="73" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Z21" s="69" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AA21" s="74"/>
       <c r="AB21" s="3"/>
@@ -3573,24 +3725,24 @@
       <c r="AG21" s="3"/>
     </row>
     <row r="22" spans="1:33" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A22" s="96"/>
-      <c r="B22" s="89"/>
-      <c r="C22" s="89"/>
-      <c r="D22" s="89"/>
-      <c r="E22" s="89"/>
-      <c r="F22" s="89"/>
-      <c r="G22" s="89"/>
-      <c r="H22" s="89"/>
-      <c r="I22" s="89"/>
-      <c r="J22" s="89"/>
-      <c r="K22" s="89"/>
-      <c r="L22" s="89"/>
-      <c r="M22" s="89"/>
-      <c r="N22" s="89"/>
-      <c r="O22" s="89"/>
-      <c r="P22" s="93"/>
-      <c r="Q22" s="93"/>
-      <c r="R22" s="93"/>
+      <c r="A22" s="212"/>
+      <c r="B22" s="94"/>
+      <c r="C22" s="94"/>
+      <c r="D22" s="94"/>
+      <c r="E22" s="94"/>
+      <c r="F22" s="94"/>
+      <c r="G22" s="94"/>
+      <c r="H22" s="94"/>
+      <c r="I22" s="94"/>
+      <c r="J22" s="94"/>
+      <c r="K22" s="94"/>
+      <c r="L22" s="94"/>
+      <c r="M22" s="94"/>
+      <c r="N22" s="94"/>
+      <c r="O22" s="94"/>
+      <c r="P22" s="146"/>
+      <c r="Q22" s="146"/>
+      <c r="R22" s="146"/>
       <c r="S22" s="32">
         <v>27</v>
       </c>
@@ -3602,10 +3754,10 @@
       <c r="W22" s="34"/>
       <c r="X22" s="68"/>
       <c r="Y22" s="75" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Z22" s="76" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AA22" s="77"/>
       <c r="AB22" s="3"/>
@@ -3616,48 +3768,48 @@
       <c r="AG22" s="3"/>
     </row>
     <row r="23" spans="1:33" ht="16.5" customHeight="1">
-      <c r="A23" s="94">
+      <c r="A23" s="210">
         <v>1196037</v>
       </c>
-      <c r="B23" s="97" t="s">
+      <c r="B23" s="92" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" s="92" t="s">
         <v>52</v>
       </c>
-      <c r="C23" s="97" t="s">
-        <v>53</v>
-      </c>
-      <c r="D23" s="97">
+      <c r="D23" s="92">
         <v>12</v>
       </c>
-      <c r="E23" s="97" t="s">
+      <c r="E23" s="92" t="s">
+        <v>57</v>
+      </c>
+      <c r="F23" s="98" t="s">
         <v>58</v>
       </c>
-      <c r="F23" s="90" t="s">
-        <v>59</v>
-      </c>
-      <c r="G23" s="90">
+      <c r="G23" s="98">
         <v>9</v>
       </c>
-      <c r="H23" s="87"/>
-      <c r="I23" s="87"/>
-      <c r="J23" s="87" t="s">
-        <v>19</v>
-      </c>
-      <c r="K23" s="87" t="s">
-        <v>19</v>
-      </c>
-      <c r="L23" s="87"/>
-      <c r="M23" s="87"/>
-      <c r="N23" s="87"/>
-      <c r="O23" s="90" t="s">
-        <v>57</v>
-      </c>
-      <c r="P23" s="91">
+      <c r="H23" s="99"/>
+      <c r="I23" s="99"/>
+      <c r="J23" s="99" t="s">
+        <v>55</v>
+      </c>
+      <c r="K23" s="99" t="s">
+        <v>55</v>
+      </c>
+      <c r="L23" s="99"/>
+      <c r="M23" s="99"/>
+      <c r="N23" s="99"/>
+      <c r="O23" s="98" t="s">
+        <v>56</v>
+      </c>
+      <c r="P23" s="144">
         <v>0</v>
       </c>
-      <c r="Q23" s="91">
+      <c r="Q23" s="144">
         <v>12</v>
       </c>
-      <c r="R23" s="91">
+      <c r="R23" s="144">
         <v>12</v>
       </c>
       <c r="S23" s="51"/>
@@ -3675,10 +3827,10 @@
         <v>4</v>
       </c>
       <c r="Y23" s="70" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Z23" s="78" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AA23" s="3"/>
       <c r="AB23" s="3"/>
@@ -3689,24 +3841,24 @@
       <c r="AG23" s="3"/>
     </row>
     <row r="24" spans="1:33" ht="16.5" customHeight="1">
-      <c r="A24" s="95"/>
-      <c r="B24" s="88"/>
-      <c r="C24" s="88"/>
-      <c r="D24" s="88"/>
-      <c r="E24" s="88"/>
-      <c r="F24" s="88"/>
-      <c r="G24" s="88"/>
-      <c r="H24" s="88"/>
-      <c r="I24" s="88"/>
-      <c r="J24" s="88"/>
-      <c r="K24" s="107"/>
-      <c r="L24" s="88"/>
-      <c r="M24" s="88"/>
-      <c r="N24" s="88"/>
-      <c r="O24" s="88"/>
-      <c r="P24" s="92"/>
-      <c r="Q24" s="92"/>
-      <c r="R24" s="92"/>
+      <c r="A24" s="211"/>
+      <c r="B24" s="93"/>
+      <c r="C24" s="93"/>
+      <c r="D24" s="93"/>
+      <c r="E24" s="93"/>
+      <c r="F24" s="93"/>
+      <c r="G24" s="93"/>
+      <c r="H24" s="93"/>
+      <c r="I24" s="93"/>
+      <c r="J24" s="93"/>
+      <c r="K24" s="93"/>
+      <c r="L24" s="93"/>
+      <c r="M24" s="93"/>
+      <c r="N24" s="93"/>
+      <c r="O24" s="93"/>
+      <c r="P24" s="145"/>
+      <c r="Q24" s="145"/>
+      <c r="R24" s="145"/>
       <c r="S24" s="47">
         <v>6</v>
       </c>
@@ -3726,10 +3878,10 @@
         <v>11</v>
       </c>
       <c r="Y24" s="73" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Z24" s="79" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AA24" s="3"/>
       <c r="AB24" s="3"/>
@@ -3740,24 +3892,24 @@
       <c r="AG24" s="3"/>
     </row>
     <row r="25" spans="1:33" ht="16.5" customHeight="1">
-      <c r="A25" s="95"/>
-      <c r="B25" s="88"/>
-      <c r="C25" s="88"/>
-      <c r="D25" s="88"/>
-      <c r="E25" s="88"/>
-      <c r="F25" s="88"/>
-      <c r="G25" s="88"/>
-      <c r="H25" s="88"/>
-      <c r="I25" s="88"/>
-      <c r="J25" s="88"/>
-      <c r="K25" s="107"/>
-      <c r="L25" s="88"/>
-      <c r="M25" s="88"/>
-      <c r="N25" s="88"/>
-      <c r="O25" s="88"/>
-      <c r="P25" s="92"/>
-      <c r="Q25" s="92"/>
-      <c r="R25" s="92"/>
+      <c r="A25" s="211"/>
+      <c r="B25" s="93"/>
+      <c r="C25" s="93"/>
+      <c r="D25" s="93"/>
+      <c r="E25" s="93"/>
+      <c r="F25" s="93"/>
+      <c r="G25" s="93"/>
+      <c r="H25" s="93"/>
+      <c r="I25" s="93"/>
+      <c r="J25" s="93"/>
+      <c r="K25" s="93"/>
+      <c r="L25" s="93"/>
+      <c r="M25" s="93"/>
+      <c r="N25" s="93"/>
+      <c r="O25" s="93"/>
+      <c r="P25" s="145"/>
+      <c r="Q25" s="145"/>
+      <c r="R25" s="145"/>
       <c r="S25" s="47">
         <v>13</v>
       </c>
@@ -3777,10 +3929,10 @@
         <v>18</v>
       </c>
       <c r="Y25" s="73" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Z25" s="79" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AA25" s="3"/>
       <c r="AB25" s="3"/>
@@ -3791,24 +3943,24 @@
       <c r="AG25" s="3"/>
     </row>
     <row r="26" spans="1:33" ht="23.25" customHeight="1">
-      <c r="A26" s="95"/>
-      <c r="B26" s="88"/>
-      <c r="C26" s="88"/>
-      <c r="D26" s="88"/>
-      <c r="E26" s="88"/>
-      <c r="F26" s="88"/>
-      <c r="G26" s="88"/>
-      <c r="H26" s="88"/>
-      <c r="I26" s="88"/>
-      <c r="J26" s="88"/>
-      <c r="K26" s="107"/>
-      <c r="L26" s="88"/>
-      <c r="M26" s="88"/>
-      <c r="N26" s="88"/>
-      <c r="O26" s="88"/>
-      <c r="P26" s="92"/>
-      <c r="Q26" s="92"/>
-      <c r="R26" s="92"/>
+      <c r="A26" s="211"/>
+      <c r="B26" s="93"/>
+      <c r="C26" s="93"/>
+      <c r="D26" s="93"/>
+      <c r="E26" s="93"/>
+      <c r="F26" s="93"/>
+      <c r="G26" s="93"/>
+      <c r="H26" s="93"/>
+      <c r="I26" s="93"/>
+      <c r="J26" s="93"/>
+      <c r="K26" s="93"/>
+      <c r="L26" s="93"/>
+      <c r="M26" s="93"/>
+      <c r="N26" s="93"/>
+      <c r="O26" s="93"/>
+      <c r="P26" s="145"/>
+      <c r="Q26" s="145"/>
+      <c r="R26" s="145"/>
       <c r="S26" s="30">
         <v>20</v>
       </c>
@@ -3828,10 +3980,10 @@
         <v>25</v>
       </c>
       <c r="Y26" s="73" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Z26" s="79" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AA26" s="3"/>
       <c r="AB26" s="3"/>
@@ -3842,24 +3994,24 @@
       <c r="AG26" s="3"/>
     </row>
     <row r="27" spans="1:33" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A27" s="96"/>
-      <c r="B27" s="89"/>
-      <c r="C27" s="89"/>
-      <c r="D27" s="89"/>
-      <c r="E27" s="89"/>
-      <c r="F27" s="89"/>
-      <c r="G27" s="89"/>
-      <c r="H27" s="89"/>
-      <c r="I27" s="89"/>
-      <c r="J27" s="89"/>
-      <c r="K27" s="108"/>
-      <c r="L27" s="89"/>
-      <c r="M27" s="89"/>
-      <c r="N27" s="89"/>
-      <c r="O27" s="89"/>
-      <c r="P27" s="93"/>
-      <c r="Q27" s="93"/>
-      <c r="R27" s="93"/>
+      <c r="A27" s="212"/>
+      <c r="B27" s="94"/>
+      <c r="C27" s="94"/>
+      <c r="D27" s="94"/>
+      <c r="E27" s="94"/>
+      <c r="F27" s="94"/>
+      <c r="G27" s="94"/>
+      <c r="H27" s="94"/>
+      <c r="I27" s="94"/>
+      <c r="J27" s="94"/>
+      <c r="K27" s="94"/>
+      <c r="L27" s="94"/>
+      <c r="M27" s="94"/>
+      <c r="N27" s="94"/>
+      <c r="O27" s="94"/>
+      <c r="P27" s="146"/>
+      <c r="Q27" s="146"/>
+      <c r="R27" s="146"/>
       <c r="S27" s="32">
         <v>27</v>
       </c>
@@ -3870,10 +4022,10 @@
       <c r="V27" s="34"/>
       <c r="W27" s="34"/>
       <c r="X27" s="54"/>
-      <c r="Y27" s="81" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z27" s="82"/>
+      <c r="Y27" s="80" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z27" s="81"/>
       <c r="AA27" s="3"/>
       <c r="AB27" s="3"/>
       <c r="AC27" s="3"/>
@@ -3883,48 +4035,48 @@
       <c r="AG27" s="3"/>
     </row>
     <row r="28" spans="1:33" ht="16.5" customHeight="1">
-      <c r="A28" s="94">
+      <c r="A28" s="198">
         <v>1196037</v>
       </c>
-      <c r="B28" s="97" t="s">
+      <c r="B28" s="92" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" s="92" t="s">
         <v>52</v>
       </c>
-      <c r="C28" s="97" t="s">
-        <v>53</v>
-      </c>
-      <c r="D28" s="97">
+      <c r="D28" s="92">
         <v>12</v>
       </c>
-      <c r="E28" s="97" t="s">
+      <c r="E28" s="92" t="s">
+        <v>57</v>
+      </c>
+      <c r="F28" s="98" t="s">
         <v>58</v>
       </c>
-      <c r="F28" s="90" t="s">
-        <v>59</v>
-      </c>
-      <c r="G28" s="90">
+      <c r="G28" s="98">
         <v>11</v>
       </c>
-      <c r="H28" s="87"/>
-      <c r="I28" s="87"/>
-      <c r="J28" s="87" t="s">
-        <v>19</v>
-      </c>
-      <c r="K28" s="87" t="s">
-        <v>19</v>
-      </c>
-      <c r="L28" s="87"/>
-      <c r="M28" s="87"/>
-      <c r="N28" s="87"/>
-      <c r="O28" s="90" t="s">
-        <v>57</v>
-      </c>
-      <c r="P28" s="91">
+      <c r="H28" s="99"/>
+      <c r="I28" s="99"/>
+      <c r="J28" s="99" t="s">
+        <v>61</v>
+      </c>
+      <c r="K28" s="99" t="s">
+        <v>61</v>
+      </c>
+      <c r="L28" s="99"/>
+      <c r="M28" s="99"/>
+      <c r="N28" s="99"/>
+      <c r="O28" s="98" t="s">
+        <v>56</v>
+      </c>
+      <c r="P28" s="144">
         <v>0</v>
       </c>
-      <c r="Q28" s="91">
+      <c r="Q28" s="144">
         <v>12</v>
       </c>
-      <c r="R28" s="91">
+      <c r="R28" s="144">
         <f>Q28+P28</f>
         <v>12</v>
       </c>
@@ -3943,13 +4095,13 @@
         <v>4</v>
       </c>
       <c r="Y28" s="70" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Z28" s="71" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AA28" s="72" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AB28" s="3"/>
       <c r="AC28" s="3"/>
@@ -3959,24 +4111,24 @@
       <c r="AG28" s="3"/>
     </row>
     <row r="29" spans="1:33" ht="16.5" customHeight="1">
-      <c r="A29" s="95"/>
-      <c r="B29" s="88"/>
-      <c r="C29" s="88"/>
-      <c r="D29" s="88"/>
-      <c r="E29" s="88"/>
-      <c r="F29" s="88"/>
-      <c r="G29" s="88"/>
-      <c r="H29" s="88"/>
-      <c r="I29" s="88"/>
-      <c r="J29" s="88"/>
-      <c r="K29" s="88"/>
-      <c r="L29" s="88"/>
-      <c r="M29" s="88"/>
-      <c r="N29" s="88"/>
-      <c r="O29" s="88"/>
-      <c r="P29" s="92"/>
-      <c r="Q29" s="92"/>
-      <c r="R29" s="92"/>
+      <c r="A29" s="199"/>
+      <c r="B29" s="93"/>
+      <c r="C29" s="93"/>
+      <c r="D29" s="93"/>
+      <c r="E29" s="93"/>
+      <c r="F29" s="93"/>
+      <c r="G29" s="93"/>
+      <c r="H29" s="93"/>
+      <c r="I29" s="93"/>
+      <c r="J29" s="93"/>
+      <c r="K29" s="93"/>
+      <c r="L29" s="93"/>
+      <c r="M29" s="93"/>
+      <c r="N29" s="93"/>
+      <c r="O29" s="93"/>
+      <c r="P29" s="145"/>
+      <c r="Q29" s="145"/>
+      <c r="R29" s="145"/>
       <c r="S29" s="47">
         <v>6</v>
       </c>
@@ -3996,10 +4148,10 @@
         <v>11</v>
       </c>
       <c r="Y29" s="73" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Z29" s="69" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AA29" s="74"/>
       <c r="AB29" s="3"/>
@@ -4010,24 +4162,24 @@
       <c r="AG29" s="3"/>
     </row>
     <row r="30" spans="1:33" ht="16.5" customHeight="1">
-      <c r="A30" s="95"/>
-      <c r="B30" s="88"/>
-      <c r="C30" s="88"/>
-      <c r="D30" s="88"/>
-      <c r="E30" s="88"/>
-      <c r="F30" s="88"/>
-      <c r="G30" s="88"/>
-      <c r="H30" s="88"/>
-      <c r="I30" s="88"/>
-      <c r="J30" s="88"/>
-      <c r="K30" s="88"/>
-      <c r="L30" s="88"/>
-      <c r="M30" s="88"/>
-      <c r="N30" s="88"/>
-      <c r="O30" s="88"/>
-      <c r="P30" s="92"/>
-      <c r="Q30" s="92"/>
-      <c r="R30" s="92"/>
+      <c r="A30" s="199"/>
+      <c r="B30" s="93"/>
+      <c r="C30" s="93"/>
+      <c r="D30" s="93"/>
+      <c r="E30" s="93"/>
+      <c r="F30" s="93"/>
+      <c r="G30" s="93"/>
+      <c r="H30" s="93"/>
+      <c r="I30" s="93"/>
+      <c r="J30" s="93"/>
+      <c r="K30" s="93"/>
+      <c r="L30" s="93"/>
+      <c r="M30" s="93"/>
+      <c r="N30" s="93"/>
+      <c r="O30" s="93"/>
+      <c r="P30" s="145"/>
+      <c r="Q30" s="145"/>
+      <c r="R30" s="145"/>
       <c r="S30" s="47">
         <v>13</v>
       </c>
@@ -4047,10 +4199,10 @@
         <v>18</v>
       </c>
       <c r="Y30" s="73" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Z30" s="69" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AA30" s="74"/>
       <c r="AB30" s="3"/>
@@ -4061,24 +4213,24 @@
       <c r="AG30" s="3"/>
     </row>
     <row r="31" spans="1:33" ht="16.5" customHeight="1">
-      <c r="A31" s="95"/>
-      <c r="B31" s="88"/>
-      <c r="C31" s="88"/>
-      <c r="D31" s="88"/>
-      <c r="E31" s="88"/>
-      <c r="F31" s="88"/>
-      <c r="G31" s="88"/>
-      <c r="H31" s="88"/>
-      <c r="I31" s="88"/>
-      <c r="J31" s="88"/>
-      <c r="K31" s="88"/>
-      <c r="L31" s="88"/>
-      <c r="M31" s="88"/>
-      <c r="N31" s="88"/>
-      <c r="O31" s="88"/>
-      <c r="P31" s="92"/>
-      <c r="Q31" s="92"/>
-      <c r="R31" s="92"/>
+      <c r="A31" s="199"/>
+      <c r="B31" s="93"/>
+      <c r="C31" s="93"/>
+      <c r="D31" s="93"/>
+      <c r="E31" s="93"/>
+      <c r="F31" s="93"/>
+      <c r="G31" s="93"/>
+      <c r="H31" s="93"/>
+      <c r="I31" s="93"/>
+      <c r="J31" s="93"/>
+      <c r="K31" s="93"/>
+      <c r="L31" s="93"/>
+      <c r="M31" s="93"/>
+      <c r="N31" s="93"/>
+      <c r="O31" s="93"/>
+      <c r="P31" s="145"/>
+      <c r="Q31" s="145"/>
+      <c r="R31" s="145"/>
       <c r="S31" s="30">
         <v>20</v>
       </c>
@@ -4098,10 +4250,10 @@
         <v>25</v>
       </c>
       <c r="Y31" s="73" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Z31" s="69" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AA31" s="74"/>
       <c r="AB31" s="3"/>
@@ -4112,24 +4264,24 @@
       <c r="AG31" s="3"/>
     </row>
     <row r="32" spans="1:33" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A32" s="96"/>
-      <c r="B32" s="89"/>
-      <c r="C32" s="89"/>
-      <c r="D32" s="89"/>
-      <c r="E32" s="89"/>
-      <c r="F32" s="89"/>
-      <c r="G32" s="89"/>
-      <c r="H32" s="89"/>
-      <c r="I32" s="89"/>
-      <c r="J32" s="89"/>
-      <c r="K32" s="89"/>
-      <c r="L32" s="89"/>
-      <c r="M32" s="89"/>
-      <c r="N32" s="89"/>
-      <c r="O32" s="89"/>
-      <c r="P32" s="93"/>
-      <c r="Q32" s="93"/>
-      <c r="R32" s="93"/>
+      <c r="A32" s="200"/>
+      <c r="B32" s="94"/>
+      <c r="C32" s="94"/>
+      <c r="D32" s="94"/>
+      <c r="E32" s="94"/>
+      <c r="F32" s="94"/>
+      <c r="G32" s="94"/>
+      <c r="H32" s="94"/>
+      <c r="I32" s="94"/>
+      <c r="J32" s="94"/>
+      <c r="K32" s="94"/>
+      <c r="L32" s="94"/>
+      <c r="M32" s="94"/>
+      <c r="N32" s="94"/>
+      <c r="O32" s="94"/>
+      <c r="P32" s="146"/>
+      <c r="Q32" s="146"/>
+      <c r="R32" s="146"/>
       <c r="S32" s="32">
         <v>27</v>
       </c>
@@ -4140,13 +4292,13 @@
       <c r="V32" s="34"/>
       <c r="W32" s="34"/>
       <c r="X32" s="54"/>
-      <c r="Y32" s="81" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z32" s="85" t="s">
-        <v>84</v>
-      </c>
-      <c r="AA32" s="86"/>
+      <c r="Y32" s="80" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z32" s="84" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA32" s="85"/>
       <c r="AB32" s="3"/>
       <c r="AC32" s="3"/>
       <c r="AD32" s="3"/>
@@ -4155,46 +4307,46 @@
       <c r="AG32" s="3"/>
     </row>
     <row r="33" spans="1:33" ht="16.5" customHeight="1">
-      <c r="A33" s="94">
+      <c r="A33" s="210">
         <v>1196037</v>
       </c>
-      <c r="B33" s="97" t="s">
+      <c r="B33" s="92" t="s">
+        <v>51</v>
+      </c>
+      <c r="C33" s="92" t="s">
         <v>52</v>
       </c>
-      <c r="C33" s="97" t="s">
-        <v>53</v>
-      </c>
-      <c r="D33" s="97">
+      <c r="D33" s="92">
         <v>12</v>
       </c>
-      <c r="E33" s="97" t="s">
+      <c r="E33" s="92" t="s">
+        <v>57</v>
+      </c>
+      <c r="F33" s="98" t="s">
         <v>58</v>
       </c>
-      <c r="F33" s="90" t="s">
-        <v>59</v>
-      </c>
-      <c r="G33" s="90">
+      <c r="G33" s="98">
         <v>20</v>
       </c>
-      <c r="H33" s="87"/>
-      <c r="I33" s="87"/>
-      <c r="J33" s="87"/>
-      <c r="K33" s="87"/>
-      <c r="L33" s="87" t="s">
+      <c r="H33" s="99"/>
+      <c r="I33" s="99"/>
+      <c r="J33" s="99"/>
+      <c r="K33" s="99"/>
+      <c r="L33" s="99" t="s">
+        <v>55</v>
+      </c>
+      <c r="M33" s="99"/>
+      <c r="N33" s="99"/>
+      <c r="O33" s="98" t="s">
         <v>56</v>
       </c>
-      <c r="M33" s="87"/>
-      <c r="N33" s="87"/>
-      <c r="O33" s="90" t="s">
-        <v>57</v>
-      </c>
-      <c r="P33" s="91">
+      <c r="P33" s="144">
         <v>0</v>
       </c>
-      <c r="Q33" s="91">
+      <c r="Q33" s="144">
         <v>12</v>
       </c>
-      <c r="R33" s="91">
+      <c r="R33" s="144">
         <f>Q33+P33</f>
         <v>12</v>
       </c>
@@ -4206,26 +4358,26 @@
       <c r="V33" s="56">
         <v>2</v>
       </c>
-      <c r="W33" s="83">
+      <c r="W33" s="82">
         <v>3</v>
       </c>
       <c r="X33" s="66">
         <v>4</v>
       </c>
       <c r="Y33" s="70" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Z33" s="71" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AA33" s="71" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AB33" s="71" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AC33" s="72" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AD33" s="3"/>
       <c r="AE33" s="3"/>
@@ -4233,24 +4385,24 @@
       <c r="AG33" s="3"/>
     </row>
     <row r="34" spans="1:33" ht="16.5" customHeight="1">
-      <c r="A34" s="95"/>
-      <c r="B34" s="88"/>
-      <c r="C34" s="88"/>
-      <c r="D34" s="88"/>
-      <c r="E34" s="88"/>
-      <c r="F34" s="88"/>
-      <c r="G34" s="88"/>
-      <c r="H34" s="88"/>
-      <c r="I34" s="88"/>
-      <c r="J34" s="88"/>
-      <c r="K34" s="88"/>
-      <c r="L34" s="88"/>
-      <c r="M34" s="88"/>
-      <c r="N34" s="88"/>
-      <c r="O34" s="88"/>
-      <c r="P34" s="92"/>
-      <c r="Q34" s="92"/>
-      <c r="R34" s="92"/>
+      <c r="A34" s="211"/>
+      <c r="B34" s="93"/>
+      <c r="C34" s="93"/>
+      <c r="D34" s="93"/>
+      <c r="E34" s="93"/>
+      <c r="F34" s="93"/>
+      <c r="G34" s="93"/>
+      <c r="H34" s="93"/>
+      <c r="I34" s="93"/>
+      <c r="J34" s="93"/>
+      <c r="K34" s="93"/>
+      <c r="L34" s="93"/>
+      <c r="M34" s="93"/>
+      <c r="N34" s="93"/>
+      <c r="O34" s="93"/>
+      <c r="P34" s="145"/>
+      <c r="Q34" s="145"/>
+      <c r="R34" s="145"/>
       <c r="S34" s="47">
         <v>6</v>
       </c>
@@ -4270,16 +4422,16 @@
         <v>11</v>
       </c>
       <c r="Y34" s="73" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Z34" s="69" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AA34" s="69" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AB34" s="69" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AC34" s="74"/>
       <c r="AD34" s="3"/>
@@ -4288,24 +4440,24 @@
       <c r="AG34" s="3"/>
     </row>
     <row r="35" spans="1:33" ht="16.5" customHeight="1">
-      <c r="A35" s="95"/>
-      <c r="B35" s="88"/>
-      <c r="C35" s="88"/>
-      <c r="D35" s="88"/>
-      <c r="E35" s="88"/>
-      <c r="F35" s="88"/>
-      <c r="G35" s="88"/>
-      <c r="H35" s="88"/>
-      <c r="I35" s="88"/>
-      <c r="J35" s="88"/>
-      <c r="K35" s="88"/>
-      <c r="L35" s="88"/>
-      <c r="M35" s="88"/>
-      <c r="N35" s="88"/>
-      <c r="O35" s="88"/>
-      <c r="P35" s="92"/>
-      <c r="Q35" s="92"/>
-      <c r="R35" s="92"/>
+      <c r="A35" s="211"/>
+      <c r="B35" s="93"/>
+      <c r="C35" s="93"/>
+      <c r="D35" s="93"/>
+      <c r="E35" s="93"/>
+      <c r="F35" s="93"/>
+      <c r="G35" s="93"/>
+      <c r="H35" s="93"/>
+      <c r="I35" s="93"/>
+      <c r="J35" s="93"/>
+      <c r="K35" s="93"/>
+      <c r="L35" s="93"/>
+      <c r="M35" s="93"/>
+      <c r="N35" s="93"/>
+      <c r="O35" s="93"/>
+      <c r="P35" s="145"/>
+      <c r="Q35" s="145"/>
+      <c r="R35" s="145"/>
       <c r="S35" s="47">
         <v>13</v>
       </c>
@@ -4325,16 +4477,16 @@
         <v>18</v>
       </c>
       <c r="Y35" s="73" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Z35" s="69" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AA35" s="69" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AB35" s="69" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AC35" s="74"/>
       <c r="AD35" s="3"/>
@@ -4343,24 +4495,24 @@
       <c r="AG35" s="3"/>
     </row>
     <row r="36" spans="1:33" ht="16.5" customHeight="1">
-      <c r="A36" s="95"/>
-      <c r="B36" s="88"/>
-      <c r="C36" s="88"/>
-      <c r="D36" s="88"/>
-      <c r="E36" s="88"/>
-      <c r="F36" s="88"/>
-      <c r="G36" s="88"/>
-      <c r="H36" s="88"/>
-      <c r="I36" s="88"/>
-      <c r="J36" s="88"/>
-      <c r="K36" s="88"/>
-      <c r="L36" s="88"/>
-      <c r="M36" s="88"/>
-      <c r="N36" s="88"/>
-      <c r="O36" s="88"/>
-      <c r="P36" s="92"/>
-      <c r="Q36" s="92"/>
-      <c r="R36" s="92"/>
+      <c r="A36" s="211"/>
+      <c r="B36" s="93"/>
+      <c r="C36" s="93"/>
+      <c r="D36" s="93"/>
+      <c r="E36" s="93"/>
+      <c r="F36" s="93"/>
+      <c r="G36" s="93"/>
+      <c r="H36" s="93"/>
+      <c r="I36" s="93"/>
+      <c r="J36" s="93"/>
+      <c r="K36" s="93"/>
+      <c r="L36" s="93"/>
+      <c r="M36" s="93"/>
+      <c r="N36" s="93"/>
+      <c r="O36" s="93"/>
+      <c r="P36" s="145"/>
+      <c r="Q36" s="145"/>
+      <c r="R36" s="145"/>
       <c r="S36" s="30">
         <v>20</v>
       </c>
@@ -4380,16 +4532,16 @@
         <v>25</v>
       </c>
       <c r="Y36" s="73" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Z36" s="69" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AA36" s="69" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AB36" s="69" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AC36" s="74"/>
       <c r="AD36" s="3"/>
@@ -4398,24 +4550,24 @@
       <c r="AG36" s="3"/>
     </row>
     <row r="37" spans="1:33" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A37" s="96"/>
-      <c r="B37" s="89"/>
-      <c r="C37" s="89"/>
-      <c r="D37" s="89"/>
-      <c r="E37" s="89"/>
-      <c r="F37" s="89"/>
-      <c r="G37" s="89"/>
-      <c r="H37" s="89"/>
-      <c r="I37" s="89"/>
-      <c r="J37" s="89"/>
-      <c r="K37" s="89"/>
-      <c r="L37" s="89"/>
-      <c r="M37" s="89"/>
-      <c r="N37" s="89"/>
-      <c r="O37" s="89"/>
-      <c r="P37" s="93"/>
-      <c r="Q37" s="93"/>
-      <c r="R37" s="93"/>
+      <c r="A37" s="212"/>
+      <c r="B37" s="94"/>
+      <c r="C37" s="94"/>
+      <c r="D37" s="94"/>
+      <c r="E37" s="94"/>
+      <c r="F37" s="94"/>
+      <c r="G37" s="94"/>
+      <c r="H37" s="94"/>
+      <c r="I37" s="94"/>
+      <c r="J37" s="94"/>
+      <c r="K37" s="94"/>
+      <c r="L37" s="94"/>
+      <c r="M37" s="94"/>
+      <c r="N37" s="94"/>
+      <c r="O37" s="94"/>
+      <c r="P37" s="146"/>
+      <c r="Q37" s="146"/>
+      <c r="R37" s="146"/>
       <c r="S37" s="32">
         <v>27</v>
       </c>
@@ -4427,14 +4579,14 @@
       <c r="W37" s="34"/>
       <c r="X37" s="68"/>
       <c r="Y37" s="75" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Z37" s="76"/>
       <c r="AA37" s="76" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AB37" s="76" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AC37" s="77"/>
       <c r="AD37" s="3"/>
@@ -4443,46 +4595,46 @@
       <c r="AG37" s="3"/>
     </row>
     <row r="38" spans="1:33" ht="16.5" customHeight="1">
-      <c r="A38" s="94">
+      <c r="A38" s="210">
         <v>1134021</v>
       </c>
-      <c r="B38" s="97" t="s">
-        <v>52</v>
-      </c>
-      <c r="C38" s="97" t="s">
-        <v>61</v>
-      </c>
-      <c r="D38" s="97">
+      <c r="B38" s="92" t="s">
+        <v>51</v>
+      </c>
+      <c r="C38" s="92" t="s">
+        <v>60</v>
+      </c>
+      <c r="D38" s="92">
         <v>12</v>
       </c>
-      <c r="E38" s="97" t="s">
-        <v>60</v>
-      </c>
-      <c r="F38" s="98" t="s">
-        <v>86</v>
-      </c>
-      <c r="G38" s="90">
+      <c r="E38" s="92" t="s">
+        <v>59</v>
+      </c>
+      <c r="F38" s="95" t="s">
+        <v>111</v>
+      </c>
+      <c r="G38" s="98">
         <v>9</v>
       </c>
-      <c r="H38" s="87"/>
-      <c r="I38" s="87" t="s">
-        <v>56</v>
-      </c>
-      <c r="J38" s="87"/>
-      <c r="K38" s="87"/>
-      <c r="L38" s="87"/>
-      <c r="M38" s="87"/>
-      <c r="N38" s="87"/>
-      <c r="O38" s="90" t="s">
-        <v>63</v>
-      </c>
-      <c r="P38" s="91">
+      <c r="H38" s="99"/>
+      <c r="I38" s="99" t="s">
+        <v>55</v>
+      </c>
+      <c r="J38" s="99"/>
+      <c r="K38" s="99"/>
+      <c r="L38" s="99"/>
+      <c r="M38" s="99"/>
+      <c r="N38" s="99"/>
+      <c r="O38" s="98" t="s">
+        <v>62</v>
+      </c>
+      <c r="P38" s="144">
         <v>0</v>
       </c>
-      <c r="Q38" s="91">
+      <c r="Q38" s="144">
         <v>12</v>
       </c>
-      <c r="R38" s="91">
+      <c r="R38" s="144">
         <v>12</v>
       </c>
       <c r="S38" s="51"/>
@@ -4500,13 +4652,13 @@
         <v>4</v>
       </c>
       <c r="Y38" s="70" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="Z38" s="78" t="s">
-        <v>92</v>
-      </c>
-      <c r="AA38" s="84"/>
-      <c r="AB38" s="84"/>
+        <v>90</v>
+      </c>
+      <c r="AA38" s="83"/>
+      <c r="AB38" s="83"/>
       <c r="AC38" s="3"/>
       <c r="AD38" s="3"/>
       <c r="AE38" s="3"/>
@@ -4514,24 +4666,24 @@
       <c r="AG38" s="3"/>
     </row>
     <row r="39" spans="1:33" ht="16.5" customHeight="1">
-      <c r="A39" s="95"/>
-      <c r="B39" s="88"/>
-      <c r="C39" s="88"/>
-      <c r="D39" s="88"/>
-      <c r="E39" s="88"/>
-      <c r="F39" s="99"/>
-      <c r="G39" s="88"/>
-      <c r="H39" s="88"/>
-      <c r="I39" s="88"/>
-      <c r="J39" s="88"/>
-      <c r="K39" s="88"/>
-      <c r="L39" s="88"/>
-      <c r="M39" s="88"/>
-      <c r="N39" s="88"/>
-      <c r="O39" s="88"/>
-      <c r="P39" s="92"/>
-      <c r="Q39" s="92"/>
-      <c r="R39" s="92"/>
+      <c r="A39" s="211"/>
+      <c r="B39" s="93"/>
+      <c r="C39" s="93"/>
+      <c r="D39" s="93"/>
+      <c r="E39" s="93"/>
+      <c r="F39" s="96"/>
+      <c r="G39" s="93"/>
+      <c r="H39" s="93"/>
+      <c r="I39" s="93"/>
+      <c r="J39" s="93"/>
+      <c r="K39" s="93"/>
+      <c r="L39" s="93"/>
+      <c r="M39" s="93"/>
+      <c r="N39" s="93"/>
+      <c r="O39" s="93"/>
+      <c r="P39" s="145"/>
+      <c r="Q39" s="145"/>
+      <c r="R39" s="145"/>
       <c r="S39" s="47">
         <v>6</v>
       </c>
@@ -4551,13 +4703,13 @@
         <v>11</v>
       </c>
       <c r="Y39" s="73" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="Z39" s="79" t="s">
-        <v>93</v>
-      </c>
-      <c r="AA39" s="84"/>
-      <c r="AB39" s="84"/>
+        <v>91</v>
+      </c>
+      <c r="AA39" s="83"/>
+      <c r="AB39" s="83"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
@@ -4565,24 +4717,24 @@
       <c r="AG39" s="3"/>
     </row>
     <row r="40" spans="1:33" ht="16.5" customHeight="1">
-      <c r="A40" s="95"/>
-      <c r="B40" s="88"/>
-      <c r="C40" s="88"/>
-      <c r="D40" s="88"/>
-      <c r="E40" s="88"/>
-      <c r="F40" s="99"/>
-      <c r="G40" s="88"/>
-      <c r="H40" s="88"/>
-      <c r="I40" s="88"/>
-      <c r="J40" s="88"/>
-      <c r="K40" s="88"/>
-      <c r="L40" s="88"/>
-      <c r="M40" s="88"/>
-      <c r="N40" s="88"/>
-      <c r="O40" s="88"/>
-      <c r="P40" s="92"/>
-      <c r="Q40" s="92"/>
-      <c r="R40" s="92"/>
+      <c r="A40" s="211"/>
+      <c r="B40" s="93"/>
+      <c r="C40" s="93"/>
+      <c r="D40" s="93"/>
+      <c r="E40" s="93"/>
+      <c r="F40" s="96"/>
+      <c r="G40" s="93"/>
+      <c r="H40" s="93"/>
+      <c r="I40" s="93"/>
+      <c r="J40" s="93"/>
+      <c r="K40" s="93"/>
+      <c r="L40" s="93"/>
+      <c r="M40" s="93"/>
+      <c r="N40" s="93"/>
+      <c r="O40" s="93"/>
+      <c r="P40" s="145"/>
+      <c r="Q40" s="145"/>
+      <c r="R40" s="145"/>
       <c r="S40" s="47">
         <v>13</v>
       </c>
@@ -4602,38 +4754,38 @@
         <v>18</v>
       </c>
       <c r="Y40" s="73" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="Z40" s="79" t="s">
-        <v>94</v>
-      </c>
-      <c r="AA40" s="84"/>
-      <c r="AB40" s="84"/>
+        <v>92</v>
+      </c>
+      <c r="AA40" s="83"/>
+      <c r="AB40" s="83"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
       <c r="AF40" s="3"/>
       <c r="AG40" s="3"/>
     </row>
-    <row r="41" spans="1:33" ht="16.5" customHeight="1">
-      <c r="A41" s="95"/>
-      <c r="B41" s="88"/>
-      <c r="C41" s="88"/>
-      <c r="D41" s="88"/>
-      <c r="E41" s="88"/>
-      <c r="F41" s="99"/>
-      <c r="G41" s="88"/>
-      <c r="H41" s="88"/>
-      <c r="I41" s="88"/>
-      <c r="J41" s="88"/>
-      <c r="K41" s="88"/>
-      <c r="L41" s="88"/>
-      <c r="M41" s="88"/>
-      <c r="N41" s="88"/>
-      <c r="O41" s="88"/>
-      <c r="P41" s="92"/>
-      <c r="Q41" s="92"/>
-      <c r="R41" s="92"/>
+    <row r="41" spans="1:33" ht="32.25" customHeight="1">
+      <c r="A41" s="211"/>
+      <c r="B41" s="93"/>
+      <c r="C41" s="93"/>
+      <c r="D41" s="93"/>
+      <c r="E41" s="93"/>
+      <c r="F41" s="96"/>
+      <c r="G41" s="93"/>
+      <c r="H41" s="93"/>
+      <c r="I41" s="93"/>
+      <c r="J41" s="93"/>
+      <c r="K41" s="93"/>
+      <c r="L41" s="93"/>
+      <c r="M41" s="93"/>
+      <c r="N41" s="93"/>
+      <c r="O41" s="93"/>
+      <c r="P41" s="145"/>
+      <c r="Q41" s="145"/>
+      <c r="R41" s="145"/>
       <c r="S41" s="30">
         <v>20</v>
       </c>
@@ -4653,38 +4805,38 @@
         <v>25</v>
       </c>
       <c r="Y41" s="73" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="Z41" s="79" t="s">
-        <v>95</v>
-      </c>
-      <c r="AA41" s="84"/>
-      <c r="AB41" s="84"/>
+        <v>93</v>
+      </c>
+      <c r="AA41" s="83"/>
+      <c r="AB41" s="83"/>
       <c r="AC41" s="3"/>
       <c r="AD41" s="3"/>
       <c r="AE41" s="3"/>
       <c r="AF41" s="3"/>
       <c r="AG41" s="3"/>
     </row>
-    <row r="42" spans="1:33" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A42" s="96"/>
-      <c r="B42" s="89"/>
-      <c r="C42" s="89"/>
-      <c r="D42" s="89"/>
-      <c r="E42" s="89"/>
-      <c r="F42" s="100"/>
-      <c r="G42" s="89"/>
-      <c r="H42" s="89"/>
-      <c r="I42" s="89"/>
-      <c r="J42" s="89"/>
-      <c r="K42" s="89"/>
-      <c r="L42" s="89"/>
-      <c r="M42" s="89"/>
-      <c r="N42" s="89"/>
-      <c r="O42" s="89"/>
-      <c r="P42" s="93"/>
-      <c r="Q42" s="93"/>
-      <c r="R42" s="93"/>
+    <row r="42" spans="1:33" ht="32.25" customHeight="1" thickBot="1">
+      <c r="A42" s="212"/>
+      <c r="B42" s="94"/>
+      <c r="C42" s="94"/>
+      <c r="D42" s="94"/>
+      <c r="E42" s="94"/>
+      <c r="F42" s="97"/>
+      <c r="G42" s="94"/>
+      <c r="H42" s="94"/>
+      <c r="I42" s="94"/>
+      <c r="J42" s="94"/>
+      <c r="K42" s="94"/>
+      <c r="L42" s="94"/>
+      <c r="M42" s="94"/>
+      <c r="N42" s="94"/>
+      <c r="O42" s="94"/>
+      <c r="P42" s="146"/>
+      <c r="Q42" s="146"/>
+      <c r="R42" s="146"/>
       <c r="S42" s="32">
         <v>27</v>
       </c>
@@ -4695,12 +4847,12 @@
       <c r="V42" s="34"/>
       <c r="W42" s="34"/>
       <c r="X42" s="68"/>
-      <c r="Y42" s="81" t="s">
-        <v>91</v>
-      </c>
-      <c r="Z42" s="82"/>
-      <c r="AA42" s="84"/>
-      <c r="AB42" s="84"/>
+      <c r="Y42" s="80" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z42" s="81"/>
+      <c r="AA42" s="83"/>
+      <c r="AB42" s="83"/>
       <c r="AC42" s="3"/>
       <c r="AD42" s="3"/>
       <c r="AE42" s="3"/>
@@ -4708,46 +4860,46 @@
       <c r="AG42" s="3"/>
     </row>
     <row r="43" spans="1:33" ht="16.5" customHeight="1">
-      <c r="A43" s="94">
+      <c r="A43" s="210">
         <v>1134021</v>
       </c>
-      <c r="B43" s="97" t="s">
-        <v>52</v>
-      </c>
-      <c r="C43" s="97" t="s">
+      <c r="B43" s="92" t="s">
+        <v>51</v>
+      </c>
+      <c r="C43" s="92" t="s">
+        <v>60</v>
+      </c>
+      <c r="D43" s="92">
+        <v>12</v>
+      </c>
+      <c r="E43" s="92" t="s">
+        <v>59</v>
+      </c>
+      <c r="F43" s="95" t="s">
+        <v>111</v>
+      </c>
+      <c r="G43" s="98">
+        <v>8</v>
+      </c>
+      <c r="H43" s="99"/>
+      <c r="I43" s="99" t="s">
         <v>61</v>
       </c>
-      <c r="D43" s="97">
+      <c r="J43" s="99"/>
+      <c r="K43" s="99"/>
+      <c r="L43" s="99"/>
+      <c r="M43" s="99"/>
+      <c r="N43" s="99"/>
+      <c r="O43" s="98" t="s">
+        <v>62</v>
+      </c>
+      <c r="P43" s="144">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="144">
         <v>12</v>
       </c>
-      <c r="E43" s="97" t="s">
-        <v>60</v>
-      </c>
-      <c r="F43" s="98" t="s">
-        <v>86</v>
-      </c>
-      <c r="G43" s="90">
-        <v>8</v>
-      </c>
-      <c r="H43" s="87"/>
-      <c r="I43" s="87" t="s">
-        <v>62</v>
-      </c>
-      <c r="J43" s="87"/>
-      <c r="K43" s="87"/>
-      <c r="L43" s="87"/>
-      <c r="M43" s="87"/>
-      <c r="N43" s="87"/>
-      <c r="O43" s="90" t="s">
-        <v>63</v>
-      </c>
-      <c r="P43" s="91">
-        <v>0</v>
-      </c>
-      <c r="Q43" s="91">
-        <v>12</v>
-      </c>
-      <c r="R43" s="91">
+      <c r="R43" s="144">
         <v>12</v>
       </c>
       <c r="S43" s="51"/>
@@ -4765,38 +4917,38 @@
         <v>4</v>
       </c>
       <c r="Y43" s="70" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="Z43" s="78" t="s">
-        <v>101</v>
-      </c>
-      <c r="AA43" s="84"/>
-      <c r="AB43" s="84"/>
+        <v>99</v>
+      </c>
+      <c r="AA43" s="83"/>
+      <c r="AB43" s="83"/>
       <c r="AC43" s="3"/>
       <c r="AD43" s="3"/>
       <c r="AE43" s="3"/>
       <c r="AF43" s="3"/>
       <c r="AG43" s="3"/>
     </row>
-    <row r="44" spans="1:33" ht="16.5" customHeight="1">
-      <c r="A44" s="95"/>
-      <c r="B44" s="88"/>
-      <c r="C44" s="88"/>
-      <c r="D44" s="88"/>
-      <c r="E44" s="88"/>
-      <c r="F44" s="99"/>
-      <c r="G44" s="88"/>
-      <c r="H44" s="88"/>
-      <c r="I44" s="88"/>
-      <c r="J44" s="88"/>
-      <c r="K44" s="88"/>
-      <c r="L44" s="88"/>
-      <c r="M44" s="88"/>
-      <c r="N44" s="88"/>
-      <c r="O44" s="88"/>
-      <c r="P44" s="92"/>
-      <c r="Q44" s="92"/>
-      <c r="R44" s="92"/>
+    <row r="44" spans="1:33" ht="30.75" customHeight="1">
+      <c r="A44" s="211"/>
+      <c r="B44" s="93"/>
+      <c r="C44" s="93"/>
+      <c r="D44" s="93"/>
+      <c r="E44" s="93"/>
+      <c r="F44" s="96"/>
+      <c r="G44" s="93"/>
+      <c r="H44" s="93"/>
+      <c r="I44" s="93"/>
+      <c r="J44" s="93"/>
+      <c r="K44" s="93"/>
+      <c r="L44" s="93"/>
+      <c r="M44" s="93"/>
+      <c r="N44" s="93"/>
+      <c r="O44" s="93"/>
+      <c r="P44" s="145"/>
+      <c r="Q44" s="145"/>
+      <c r="R44" s="145"/>
       <c r="S44" s="47">
         <v>6</v>
       </c>
@@ -4816,38 +4968,38 @@
         <v>11</v>
       </c>
       <c r="Y44" s="73" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="Z44" s="79" t="s">
-        <v>102</v>
-      </c>
-      <c r="AA44" s="84"/>
-      <c r="AB44" s="84"/>
+        <v>100</v>
+      </c>
+      <c r="AA44" s="83"/>
+      <c r="AB44" s="83"/>
       <c r="AC44" s="3"/>
       <c r="AD44" s="3"/>
       <c r="AE44" s="3"/>
       <c r="AF44" s="3"/>
       <c r="AG44" s="3"/>
     </row>
-    <row r="45" spans="1:33" ht="16.5" customHeight="1">
-      <c r="A45" s="95"/>
-      <c r="B45" s="88"/>
-      <c r="C45" s="88"/>
-      <c r="D45" s="88"/>
-      <c r="E45" s="88"/>
-      <c r="F45" s="99"/>
-      <c r="G45" s="88"/>
-      <c r="H45" s="88"/>
-      <c r="I45" s="88"/>
-      <c r="J45" s="88"/>
-      <c r="K45" s="88"/>
-      <c r="L45" s="88"/>
-      <c r="M45" s="88"/>
-      <c r="N45" s="88"/>
-      <c r="O45" s="88"/>
-      <c r="P45" s="92"/>
-      <c r="Q45" s="92"/>
-      <c r="R45" s="92"/>
+    <row r="45" spans="1:33" ht="27" customHeight="1">
+      <c r="A45" s="211"/>
+      <c r="B45" s="93"/>
+      <c r="C45" s="93"/>
+      <c r="D45" s="93"/>
+      <c r="E45" s="93"/>
+      <c r="F45" s="96"/>
+      <c r="G45" s="93"/>
+      <c r="H45" s="93"/>
+      <c r="I45" s="93"/>
+      <c r="J45" s="93"/>
+      <c r="K45" s="93"/>
+      <c r="L45" s="93"/>
+      <c r="M45" s="93"/>
+      <c r="N45" s="93"/>
+      <c r="O45" s="93"/>
+      <c r="P45" s="145"/>
+      <c r="Q45" s="145"/>
+      <c r="R45" s="145"/>
       <c r="S45" s="47">
         <v>13</v>
       </c>
@@ -4867,38 +5019,38 @@
         <v>18</v>
       </c>
       <c r="Y45" s="73" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="Z45" s="79" t="s">
-        <v>103</v>
-      </c>
-      <c r="AA45" s="84"/>
-      <c r="AB45" s="84"/>
+        <v>101</v>
+      </c>
+      <c r="AA45" s="83"/>
+      <c r="AB45" s="83"/>
       <c r="AC45" s="3"/>
       <c r="AD45" s="3"/>
       <c r="AE45" s="3"/>
       <c r="AF45" s="3"/>
       <c r="AG45" s="3"/>
     </row>
-    <row r="46" spans="1:33" ht="16.5" customHeight="1">
-      <c r="A46" s="95"/>
-      <c r="B46" s="88"/>
-      <c r="C46" s="88"/>
-      <c r="D46" s="88"/>
-      <c r="E46" s="88"/>
-      <c r="F46" s="99"/>
-      <c r="G46" s="88"/>
-      <c r="H46" s="88"/>
-      <c r="I46" s="88"/>
-      <c r="J46" s="88"/>
-      <c r="K46" s="88"/>
-      <c r="L46" s="88"/>
-      <c r="M46" s="88"/>
-      <c r="N46" s="88"/>
-      <c r="O46" s="88"/>
-      <c r="P46" s="92"/>
-      <c r="Q46" s="92"/>
-      <c r="R46" s="92"/>
+    <row r="46" spans="1:33" ht="30" customHeight="1">
+      <c r="A46" s="211"/>
+      <c r="B46" s="93"/>
+      <c r="C46" s="93"/>
+      <c r="D46" s="93"/>
+      <c r="E46" s="93"/>
+      <c r="F46" s="96"/>
+      <c r="G46" s="93"/>
+      <c r="H46" s="93"/>
+      <c r="I46" s="93"/>
+      <c r="J46" s="93"/>
+      <c r="K46" s="93"/>
+      <c r="L46" s="93"/>
+      <c r="M46" s="93"/>
+      <c r="N46" s="93"/>
+      <c r="O46" s="93"/>
+      <c r="P46" s="145"/>
+      <c r="Q46" s="145"/>
+      <c r="R46" s="145"/>
       <c r="S46" s="30">
         <v>20</v>
       </c>
@@ -4918,11 +5070,11 @@
         <v>25</v>
       </c>
       <c r="Y46" s="73" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="Z46" s="79"/>
-      <c r="AA46" s="84"/>
-      <c r="AB46" s="84"/>
+      <c r="AA46" s="83"/>
+      <c r="AB46" s="83"/>
       <c r="AC46" s="3"/>
       <c r="AD46" s="3"/>
       <c r="AE46" s="3"/>
@@ -4930,24 +5082,24 @@
       <c r="AG46" s="3"/>
     </row>
     <row r="47" spans="1:33" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A47" s="96"/>
-      <c r="B47" s="89"/>
-      <c r="C47" s="89"/>
-      <c r="D47" s="89"/>
-      <c r="E47" s="89"/>
-      <c r="F47" s="100"/>
-      <c r="G47" s="89"/>
-      <c r="H47" s="89"/>
-      <c r="I47" s="89"/>
-      <c r="J47" s="89"/>
-      <c r="K47" s="89"/>
-      <c r="L47" s="89"/>
-      <c r="M47" s="89"/>
-      <c r="N47" s="89"/>
-      <c r="O47" s="89"/>
-      <c r="P47" s="93"/>
-      <c r="Q47" s="93"/>
-      <c r="R47" s="93"/>
+      <c r="A47" s="212"/>
+      <c r="B47" s="94"/>
+      <c r="C47" s="94"/>
+      <c r="D47" s="94"/>
+      <c r="E47" s="94"/>
+      <c r="F47" s="97"/>
+      <c r="G47" s="94"/>
+      <c r="H47" s="94"/>
+      <c r="I47" s="94"/>
+      <c r="J47" s="94"/>
+      <c r="K47" s="94"/>
+      <c r="L47" s="94"/>
+      <c r="M47" s="94"/>
+      <c r="N47" s="94"/>
+      <c r="O47" s="94"/>
+      <c r="P47" s="146"/>
+      <c r="Q47" s="146"/>
+      <c r="R47" s="146"/>
       <c r="S47" s="32">
         <v>27</v>
       </c>
@@ -4958,12 +5110,12 @@
       <c r="V47" s="34"/>
       <c r="W47" s="34"/>
       <c r="X47" s="68"/>
-      <c r="Y47" s="81" t="s">
-        <v>100</v>
-      </c>
-      <c r="Z47" s="82"/>
-      <c r="AA47" s="84"/>
-      <c r="AB47" s="84"/>
+      <c r="Y47" s="80" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z47" s="81"/>
+      <c r="AA47" s="83"/>
+      <c r="AB47" s="83"/>
       <c r="AC47" s="3"/>
       <c r="AD47" s="3"/>
       <c r="AE47" s="3"/>
@@ -4971,46 +5123,46 @@
       <c r="AG47" s="3"/>
     </row>
     <row r="48" spans="1:33" ht="16.5" customHeight="1">
-      <c r="A48" s="94">
+      <c r="A48" s="210">
         <v>1134021</v>
       </c>
-      <c r="B48" s="97" t="s">
-        <v>52</v>
-      </c>
-      <c r="C48" s="97" t="s">
+      <c r="B48" s="92" t="s">
+        <v>51</v>
+      </c>
+      <c r="C48" s="92" t="s">
+        <v>60</v>
+      </c>
+      <c r="D48" s="92">
+        <v>12</v>
+      </c>
+      <c r="E48" s="92" t="s">
+        <v>59</v>
+      </c>
+      <c r="F48" s="95" t="s">
+        <v>111</v>
+      </c>
+      <c r="G48" s="98">
+        <v>17</v>
+      </c>
+      <c r="H48" s="99"/>
+      <c r="I48" s="99"/>
+      <c r="J48" s="99"/>
+      <c r="K48" s="99"/>
+      <c r="L48" s="99" t="s">
         <v>61</v>
       </c>
-      <c r="D48" s="97">
+      <c r="M48" s="99"/>
+      <c r="N48" s="99"/>
+      <c r="O48" s="98" t="s">
+        <v>62</v>
+      </c>
+      <c r="P48" s="144">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="144">
         <v>12</v>
       </c>
-      <c r="E48" s="97" t="s">
-        <v>60</v>
-      </c>
-      <c r="F48" s="98" t="s">
-        <v>86</v>
-      </c>
-      <c r="G48" s="90">
-        <v>17</v>
-      </c>
-      <c r="H48" s="87"/>
-      <c r="I48" s="87"/>
-      <c r="J48" s="87"/>
-      <c r="K48" s="87"/>
-      <c r="L48" s="87" t="s">
-        <v>62</v>
-      </c>
-      <c r="M48" s="87"/>
-      <c r="N48" s="87"/>
-      <c r="O48" s="90" t="s">
-        <v>63</v>
-      </c>
-      <c r="P48" s="91">
-        <v>0</v>
-      </c>
-      <c r="Q48" s="91">
-        <v>12</v>
-      </c>
-      <c r="R48" s="91">
+      <c r="R48" s="144">
         <v>12</v>
       </c>
       <c r="S48" s="51"/>
@@ -5028,16 +5180,16 @@
         <v>4</v>
       </c>
       <c r="Y48" s="70" t="s">
-        <v>87</v>
-      </c>
-      <c r="Z48" s="71" t="s">
-        <v>92</v>
-      </c>
-      <c r="AA48" s="71" t="s">
-        <v>96</v>
-      </c>
-      <c r="AB48" s="78" t="s">
-        <v>101</v>
+        <v>85</v>
+      </c>
+      <c r="Z48" s="69" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA48" s="69" t="s">
+        <v>94</v>
+      </c>
+      <c r="AB48" s="69" t="s">
+        <v>99</v>
       </c>
       <c r="AC48" s="3"/>
       <c r="AD48" s="3"/>
@@ -5045,25 +5197,25 @@
       <c r="AF48" s="3"/>
       <c r="AG48" s="3"/>
     </row>
-    <row r="49" spans="1:33" ht="16.5" customHeight="1">
-      <c r="A49" s="95"/>
-      <c r="B49" s="88"/>
-      <c r="C49" s="88"/>
-      <c r="D49" s="88"/>
-      <c r="E49" s="88"/>
-      <c r="F49" s="99"/>
-      <c r="G49" s="88"/>
-      <c r="H49" s="88"/>
-      <c r="I49" s="88"/>
-      <c r="J49" s="88"/>
-      <c r="K49" s="88"/>
-      <c r="L49" s="88"/>
-      <c r="M49" s="88"/>
-      <c r="N49" s="88"/>
-      <c r="O49" s="88"/>
-      <c r="P49" s="92"/>
-      <c r="Q49" s="92"/>
-      <c r="R49" s="92"/>
+    <row r="49" spans="1:33" ht="28.5" customHeight="1">
+      <c r="A49" s="211"/>
+      <c r="B49" s="93"/>
+      <c r="C49" s="93"/>
+      <c r="D49" s="93"/>
+      <c r="E49" s="93"/>
+      <c r="F49" s="96"/>
+      <c r="G49" s="93"/>
+      <c r="H49" s="93"/>
+      <c r="I49" s="93"/>
+      <c r="J49" s="93"/>
+      <c r="K49" s="93"/>
+      <c r="L49" s="93"/>
+      <c r="M49" s="93"/>
+      <c r="N49" s="93"/>
+      <c r="O49" s="93"/>
+      <c r="P49" s="145"/>
+      <c r="Q49" s="145"/>
+      <c r="R49" s="145"/>
       <c r="S49" s="47">
         <v>6</v>
       </c>
@@ -5083,16 +5235,16 @@
         <v>11</v>
       </c>
       <c r="Y49" s="73" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="Z49" s="69" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="AA49" s="69" t="s">
-        <v>97</v>
-      </c>
-      <c r="AB49" s="79" t="s">
-        <v>102</v>
+        <v>95</v>
+      </c>
+      <c r="AB49" s="69" t="s">
+        <v>100</v>
       </c>
       <c r="AC49" s="3"/>
       <c r="AD49" s="3"/>
@@ -5100,25 +5252,25 @@
       <c r="AF49" s="3"/>
       <c r="AG49" s="3"/>
     </row>
-    <row r="50" spans="1:33" ht="16.5" customHeight="1">
-      <c r="A50" s="95"/>
-      <c r="B50" s="88"/>
-      <c r="C50" s="88"/>
-      <c r="D50" s="88"/>
-      <c r="E50" s="88"/>
-      <c r="F50" s="99"/>
-      <c r="G50" s="88"/>
-      <c r="H50" s="88"/>
-      <c r="I50" s="88"/>
-      <c r="J50" s="88"/>
-      <c r="K50" s="88"/>
-      <c r="L50" s="88"/>
-      <c r="M50" s="88"/>
-      <c r="N50" s="88"/>
-      <c r="O50" s="88"/>
-      <c r="P50" s="92"/>
-      <c r="Q50" s="92"/>
-      <c r="R50" s="92"/>
+    <row r="50" spans="1:33" ht="27.75" customHeight="1">
+      <c r="A50" s="211"/>
+      <c r="B50" s="93"/>
+      <c r="C50" s="93"/>
+      <c r="D50" s="93"/>
+      <c r="E50" s="93"/>
+      <c r="F50" s="96"/>
+      <c r="G50" s="93"/>
+      <c r="H50" s="93"/>
+      <c r="I50" s="93"/>
+      <c r="J50" s="93"/>
+      <c r="K50" s="93"/>
+      <c r="L50" s="93"/>
+      <c r="M50" s="93"/>
+      <c r="N50" s="93"/>
+      <c r="O50" s="93"/>
+      <c r="P50" s="145"/>
+      <c r="Q50" s="145"/>
+      <c r="R50" s="145"/>
       <c r="S50" s="47">
         <v>13</v>
       </c>
@@ -5138,16 +5290,16 @@
         <v>18</v>
       </c>
       <c r="Y50" s="73" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="Z50" s="69" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AA50" s="69" t="s">
-        <v>98</v>
-      </c>
-      <c r="AB50" s="79" t="s">
-        <v>103</v>
+        <v>96</v>
+      </c>
+      <c r="AB50" s="69" t="s">
+        <v>101</v>
       </c>
       <c r="AC50" s="3"/>
       <c r="AD50" s="3"/>
@@ -5155,25 +5307,25 @@
       <c r="AF50" s="3"/>
       <c r="AG50" s="3"/>
     </row>
-    <row r="51" spans="1:33" ht="16.5" customHeight="1">
-      <c r="A51" s="95"/>
-      <c r="B51" s="88"/>
-      <c r="C51" s="88"/>
-      <c r="D51" s="88"/>
-      <c r="E51" s="88"/>
-      <c r="F51" s="99"/>
-      <c r="G51" s="88"/>
-      <c r="H51" s="88"/>
-      <c r="I51" s="88"/>
-      <c r="J51" s="88"/>
-      <c r="K51" s="88"/>
-      <c r="L51" s="88"/>
-      <c r="M51" s="88"/>
-      <c r="N51" s="88"/>
-      <c r="O51" s="88"/>
-      <c r="P51" s="92"/>
-      <c r="Q51" s="92"/>
-      <c r="R51" s="92"/>
+    <row r="51" spans="1:33" ht="27" customHeight="1">
+      <c r="A51" s="211"/>
+      <c r="B51" s="93"/>
+      <c r="C51" s="93"/>
+      <c r="D51" s="93"/>
+      <c r="E51" s="93"/>
+      <c r="F51" s="96"/>
+      <c r="G51" s="93"/>
+      <c r="H51" s="93"/>
+      <c r="I51" s="93"/>
+      <c r="J51" s="93"/>
+      <c r="K51" s="93"/>
+      <c r="L51" s="93"/>
+      <c r="M51" s="93"/>
+      <c r="N51" s="93"/>
+      <c r="O51" s="93"/>
+      <c r="P51" s="145"/>
+      <c r="Q51" s="145"/>
+      <c r="R51" s="145"/>
       <c r="S51" s="30">
         <v>20</v>
       </c>
@@ -5193,40 +5345,40 @@
         <v>25</v>
       </c>
       <c r="Y51" s="73" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="Z51" s="69" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AA51" s="69" t="s">
-        <v>99</v>
-      </c>
-      <c r="AB51" s="79"/>
+        <v>97</v>
+      </c>
+      <c r="AB51" s="69"/>
       <c r="AC51" s="3"/>
       <c r="AD51" s="3"/>
       <c r="AE51" s="3"/>
       <c r="AF51" s="3"/>
       <c r="AG51" s="3"/>
     </row>
-    <row r="52" spans="1:33" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A52" s="96"/>
-      <c r="B52" s="89"/>
-      <c r="C52" s="89"/>
-      <c r="D52" s="89"/>
-      <c r="E52" s="89"/>
-      <c r="F52" s="100"/>
-      <c r="G52" s="89"/>
-      <c r="H52" s="89"/>
-      <c r="I52" s="89"/>
-      <c r="J52" s="89"/>
-      <c r="K52" s="89"/>
-      <c r="L52" s="89"/>
-      <c r="M52" s="89"/>
-      <c r="N52" s="89"/>
-      <c r="O52" s="89"/>
-      <c r="P52" s="93"/>
-      <c r="Q52" s="93"/>
-      <c r="R52" s="93"/>
+    <row r="52" spans="1:33" ht="28.5" customHeight="1" thickBot="1">
+      <c r="A52" s="212"/>
+      <c r="B52" s="94"/>
+      <c r="C52" s="94"/>
+      <c r="D52" s="94"/>
+      <c r="E52" s="94"/>
+      <c r="F52" s="97"/>
+      <c r="G52" s="94"/>
+      <c r="H52" s="94"/>
+      <c r="I52" s="94"/>
+      <c r="J52" s="94"/>
+      <c r="K52" s="94"/>
+      <c r="L52" s="94"/>
+      <c r="M52" s="94"/>
+      <c r="N52" s="94"/>
+      <c r="O52" s="94"/>
+      <c r="P52" s="146"/>
+      <c r="Q52" s="146"/>
+      <c r="R52" s="146"/>
       <c r="S52" s="32">
         <v>27</v>
       </c>
@@ -5237,480 +5389,512 @@
       <c r="V52" s="34"/>
       <c r="W52" s="34"/>
       <c r="X52" s="68"/>
-      <c r="Y52" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="Z52" s="76"/>
-      <c r="AA52" s="76" t="s">
-        <v>100</v>
-      </c>
-      <c r="AB52" s="80"/>
+      <c r="Y52" s="80" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z52" s="69"/>
+      <c r="AA52" s="69" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB52" s="69"/>
       <c r="AC52" s="3"/>
       <c r="AD52" s="3"/>
       <c r="AE52" s="3"/>
       <c r="AF52" s="3"/>
       <c r="AG52" s="3"/>
     </row>
-    <row r="53" spans="1:33" ht="32.25" customHeight="1" thickBot="1">
-      <c r="A53" s="8"/>
-      <c r="B53" s="4"/>
-      <c r="C53" s="4"/>
-      <c r="D53" s="4"/>
-      <c r="E53" s="4"/>
-      <c r="F53" s="4"/>
-      <c r="G53" s="4"/>
-      <c r="H53" s="112"/>
-      <c r="I53" s="111"/>
-      <c r="J53" s="111"/>
-      <c r="K53" s="111"/>
-      <c r="L53" s="111"/>
-      <c r="M53" s="111"/>
-      <c r="N53" s="111"/>
-      <c r="O53" s="113"/>
-      <c r="P53" s="29"/>
-      <c r="Q53" s="35">
-        <f>SUM(Q13:Q52)</f>
-        <v>96</v>
-      </c>
-      <c r="R53" s="110"/>
-      <c r="S53" s="111"/>
-      <c r="T53" s="111"/>
-      <c r="U53" s="111"/>
-      <c r="V53" s="111"/>
-      <c r="W53" s="111"/>
-      <c r="X53" s="28"/>
-      <c r="Y53" s="6"/>
-      <c r="Z53" s="6"/>
-      <c r="AA53" s="7"/>
-      <c r="AB53" s="7"/>
-      <c r="AC53" s="7"/>
-      <c r="AD53" s="7"/>
-      <c r="AE53" s="7"/>
-      <c r="AF53" s="7"/>
-      <c r="AG53" s="7"/>
-    </row>
-    <row r="54" spans="1:33" ht="37.5" customHeight="1">
-      <c r="A54" s="186" t="s">
+    <row r="53" spans="1:33" ht="16.5" customHeight="1">
+      <c r="A53" s="198">
+        <v>1261227</v>
+      </c>
+      <c r="B53" s="92" t="s">
+        <v>108</v>
+      </c>
+      <c r="C53" s="92" t="s">
+        <v>60</v>
+      </c>
+      <c r="D53" s="92">
+        <v>12</v>
+      </c>
+      <c r="E53" s="92"/>
+      <c r="F53" s="185" t="s">
+        <v>109</v>
+      </c>
+      <c r="G53" s="98">
+        <v>5</v>
+      </c>
+      <c r="H53" s="99"/>
+      <c r="I53" s="99"/>
+      <c r="J53" s="99"/>
+      <c r="K53" s="99"/>
+      <c r="L53" s="99"/>
+      <c r="M53" s="99"/>
+      <c r="N53" s="99" t="s">
+        <v>110</v>
+      </c>
+      <c r="O53" s="98" t="s">
+        <v>62</v>
+      </c>
+      <c r="P53" s="144">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="144">
+        <v>12</v>
+      </c>
+      <c r="R53" s="144">
+        <v>12</v>
+      </c>
+      <c r="S53" s="51"/>
+      <c r="T53" s="52"/>
+      <c r="U53" s="52">
+        <v>1</v>
+      </c>
+      <c r="V53" s="52">
+        <v>2</v>
+      </c>
+      <c r="W53" s="56">
+        <v>3</v>
+      </c>
+      <c r="X53" s="66">
+        <v>4</v>
+      </c>
+      <c r="Y53" s="69" t="s">
+        <v>112</v>
+      </c>
+      <c r="Z53" s="88"/>
+      <c r="AA53" s="88"/>
+      <c r="AB53" s="88"/>
+      <c r="AC53" s="3"/>
+      <c r="AD53" s="3"/>
+      <c r="AE53" s="3"/>
+      <c r="AF53" s="3"/>
+      <c r="AG53" s="3"/>
+    </row>
+    <row r="54" spans="1:33" ht="16.5" customHeight="1">
+      <c r="A54" s="199"/>
+      <c r="B54" s="93"/>
+      <c r="C54" s="93"/>
+      <c r="D54" s="93"/>
+      <c r="E54" s="93"/>
+      <c r="F54" s="186"/>
+      <c r="G54" s="93"/>
+      <c r="H54" s="93"/>
+      <c r="I54" s="93"/>
+      <c r="J54" s="93"/>
+      <c r="K54" s="93"/>
+      <c r="L54" s="93"/>
+      <c r="M54" s="93"/>
+      <c r="N54" s="93"/>
+      <c r="O54" s="93"/>
+      <c r="P54" s="145"/>
+      <c r="Q54" s="145"/>
+      <c r="R54" s="145"/>
+      <c r="S54" s="47">
+        <v>6</v>
+      </c>
+      <c r="T54" s="57">
+        <v>7</v>
+      </c>
+      <c r="U54" s="48">
+        <v>8</v>
+      </c>
+      <c r="V54" s="48">
+        <v>9</v>
+      </c>
+      <c r="W54" s="57">
+        <v>10</v>
+      </c>
+      <c r="X54" s="67">
+        <v>11</v>
+      </c>
+      <c r="Y54" s="69" t="s">
+        <v>113</v>
+      </c>
+      <c r="Z54" s="88"/>
+      <c r="AA54" s="88"/>
+      <c r="AB54" s="88"/>
+      <c r="AC54" s="3"/>
+      <c r="AD54" s="3"/>
+      <c r="AE54" s="3"/>
+      <c r="AF54" s="3"/>
+      <c r="AG54" s="3"/>
+    </row>
+    <row r="55" spans="1:33" ht="16.5" customHeight="1">
+      <c r="A55" s="199"/>
+      <c r="B55" s="93"/>
+      <c r="C55" s="93"/>
+      <c r="D55" s="93"/>
+      <c r="E55" s="93"/>
+      <c r="F55" s="186"/>
+      <c r="G55" s="93"/>
+      <c r="H55" s="93"/>
+      <c r="I55" s="93"/>
+      <c r="J55" s="93"/>
+      <c r="K55" s="93"/>
+      <c r="L55" s="93"/>
+      <c r="M55" s="93"/>
+      <c r="N55" s="93"/>
+      <c r="O55" s="93"/>
+      <c r="P55" s="145"/>
+      <c r="Q55" s="145"/>
+      <c r="R55" s="145"/>
+      <c r="S55" s="47">
+        <v>13</v>
+      </c>
+      <c r="T55" s="57">
+        <v>14</v>
+      </c>
+      <c r="U55" s="48">
+        <v>15</v>
+      </c>
+      <c r="V55" s="31">
+        <v>16</v>
+      </c>
+      <c r="W55" s="57">
+        <v>17</v>
+      </c>
+      <c r="X55" s="87">
+        <v>18</v>
+      </c>
+      <c r="Y55" s="69" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z55" s="88"/>
+      <c r="AA55" s="88"/>
+      <c r="AB55" s="88"/>
+      <c r="AC55" s="3"/>
+      <c r="AD55" s="3"/>
+      <c r="AE55" s="3"/>
+      <c r="AF55" s="3"/>
+      <c r="AG55" s="3"/>
+    </row>
+    <row r="56" spans="1:33" ht="16.5" customHeight="1">
+      <c r="A56" s="199"/>
+      <c r="B56" s="93"/>
+      <c r="C56" s="93"/>
+      <c r="D56" s="93"/>
+      <c r="E56" s="93"/>
+      <c r="F56" s="186"/>
+      <c r="G56" s="93"/>
+      <c r="H56" s="93"/>
+      <c r="I56" s="93"/>
+      <c r="J56" s="93"/>
+      <c r="K56" s="93"/>
+      <c r="L56" s="93"/>
+      <c r="M56" s="93"/>
+      <c r="N56" s="93"/>
+      <c r="O56" s="93"/>
+      <c r="P56" s="145"/>
+      <c r="Q56" s="145"/>
+      <c r="R56" s="145"/>
+      <c r="S56" s="30">
         <v>20</v>
       </c>
-      <c r="B54" s="187"/>
-      <c r="C54" s="187"/>
-      <c r="D54" s="187"/>
-      <c r="E54" s="187"/>
-      <c r="F54" s="187"/>
-      <c r="G54" s="187"/>
-      <c r="H54" s="187"/>
-      <c r="I54" s="187"/>
-      <c r="J54" s="187"/>
-      <c r="K54" s="187"/>
-      <c r="L54" s="187"/>
-      <c r="M54" s="187"/>
-      <c r="N54" s="187"/>
-      <c r="O54" s="187"/>
-      <c r="P54" s="187"/>
-      <c r="Q54" s="188"/>
-      <c r="R54" s="187"/>
-      <c r="S54" s="187"/>
-      <c r="T54" s="187"/>
-      <c r="U54" s="187"/>
-      <c r="V54" s="187"/>
-      <c r="W54" s="187"/>
-      <c r="X54" s="5"/>
-      <c r="Y54" s="6"/>
-      <c r="Z54" s="6"/>
-      <c r="AA54" s="7"/>
-      <c r="AB54" s="7"/>
-      <c r="AC54" s="7"/>
-      <c r="AD54" s="7"/>
-      <c r="AE54" s="7"/>
-      <c r="AF54" s="7"/>
-      <c r="AG54" s="7"/>
-    </row>
-    <row r="55" spans="1:33" ht="38.25" customHeight="1">
-      <c r="A55" s="154" t="s">
+      <c r="T56" s="57">
         <v>21</v>
       </c>
-      <c r="B55" s="155"/>
-      <c r="C55" s="155"/>
-      <c r="D55" s="156"/>
-      <c r="E55" s="109" t="s">
+      <c r="U56" s="31">
         <v>22</v>
       </c>
-      <c r="F55" s="156"/>
-      <c r="G55" s="137" t="s">
+      <c r="V56" s="31">
         <v>23</v>
       </c>
-      <c r="H55" s="109" t="s">
+      <c r="W56" s="57">
+        <v>24</v>
+      </c>
+      <c r="X56" s="87">
+        <v>25</v>
+      </c>
+      <c r="Y56" s="69" t="s">
+        <v>115</v>
+      </c>
+      <c r="Z56" s="88"/>
+      <c r="AA56" s="88"/>
+      <c r="AB56" s="88"/>
+      <c r="AC56" s="3"/>
+      <c r="AD56" s="3"/>
+      <c r="AE56" s="3"/>
+      <c r="AF56" s="3"/>
+      <c r="AG56" s="3"/>
+    </row>
+    <row r="57" spans="1:33" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A57" s="200"/>
+      <c r="B57" s="94"/>
+      <c r="C57" s="94"/>
+      <c r="D57" s="94"/>
+      <c r="E57" s="94"/>
+      <c r="F57" s="187"/>
+      <c r="G57" s="94"/>
+      <c r="H57" s="94"/>
+      <c r="I57" s="94"/>
+      <c r="J57" s="94"/>
+      <c r="K57" s="94"/>
+      <c r="L57" s="94"/>
+      <c r="M57" s="94"/>
+      <c r="N57" s="94"/>
+      <c r="O57" s="94"/>
+      <c r="P57" s="146"/>
+      <c r="Q57" s="146"/>
+      <c r="R57" s="146"/>
+      <c r="S57" s="32">
+        <v>27</v>
+      </c>
+      <c r="T57" s="64">
+        <v>28</v>
+      </c>
+      <c r="U57" s="34"/>
+      <c r="V57" s="34"/>
+      <c r="W57" s="34"/>
+      <c r="X57" s="68"/>
+      <c r="Y57" s="69" t="s">
+        <v>116</v>
+      </c>
+      <c r="Z57" s="88"/>
+      <c r="AA57" s="88"/>
+      <c r="AB57" s="88"/>
+      <c r="AC57" s="3"/>
+      <c r="AD57" s="3"/>
+      <c r="AE57" s="3"/>
+      <c r="AF57" s="3"/>
+      <c r="AG57" s="3"/>
+    </row>
+    <row r="58" spans="1:33" ht="32.25" customHeight="1" thickBot="1">
+      <c r="A58" s="8"/>
+      <c r="B58" s="4"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="4"/>
+      <c r="H58" s="194"/>
+      <c r="I58" s="193"/>
+      <c r="J58" s="193"/>
+      <c r="K58" s="193"/>
+      <c r="L58" s="193"/>
+      <c r="M58" s="193"/>
+      <c r="N58" s="193"/>
+      <c r="O58" s="195"/>
+      <c r="P58" s="29"/>
+      <c r="Q58" s="35">
+        <f>SUM(Q13:Q57)</f>
+        <v>108</v>
+      </c>
+      <c r="R58" s="192"/>
+      <c r="S58" s="193"/>
+      <c r="T58" s="193"/>
+      <c r="U58" s="193"/>
+      <c r="V58" s="193"/>
+      <c r="W58" s="193"/>
+      <c r="X58" s="28"/>
+      <c r="Y58" s="6"/>
+      <c r="Z58" s="6"/>
+      <c r="AA58" s="7"/>
+      <c r="AB58" s="7"/>
+      <c r="AC58" s="7"/>
+      <c r="AD58" s="7"/>
+      <c r="AE58" s="7"/>
+      <c r="AF58" s="7"/>
+      <c r="AG58" s="7"/>
+    </row>
+    <row r="59" spans="1:33" ht="37.5" customHeight="1">
+      <c r="A59" s="104" t="s">
+        <v>19</v>
+      </c>
+      <c r="B59" s="105"/>
+      <c r="C59" s="105"/>
+      <c r="D59" s="105"/>
+      <c r="E59" s="105"/>
+      <c r="F59" s="105"/>
+      <c r="G59" s="105"/>
+      <c r="H59" s="105"/>
+      <c r="I59" s="105"/>
+      <c r="J59" s="105"/>
+      <c r="K59" s="105"/>
+      <c r="L59" s="105"/>
+      <c r="M59" s="105"/>
+      <c r="N59" s="105"/>
+      <c r="O59" s="105"/>
+      <c r="P59" s="105"/>
+      <c r="Q59" s="106"/>
+      <c r="R59" s="105"/>
+      <c r="S59" s="105"/>
+      <c r="T59" s="105"/>
+      <c r="U59" s="105"/>
+      <c r="V59" s="105"/>
+      <c r="W59" s="105"/>
+      <c r="X59" s="5"/>
+      <c r="Y59" s="6"/>
+      <c r="Z59" s="6"/>
+      <c r="AA59" s="7"/>
+      <c r="AB59" s="7"/>
+      <c r="AC59" s="7"/>
+      <c r="AD59" s="7"/>
+      <c r="AE59" s="7"/>
+      <c r="AF59" s="7"/>
+      <c r="AG59" s="7"/>
+    </row>
+    <row r="60" spans="1:33" ht="38.25" customHeight="1">
+      <c r="A60" s="136" t="s">
+        <v>20</v>
+      </c>
+      <c r="B60" s="137"/>
+      <c r="C60" s="137"/>
+      <c r="D60" s="138"/>
+      <c r="E60" s="163" t="s">
+        <v>21</v>
+      </c>
+      <c r="F60" s="138"/>
+      <c r="G60" s="154" t="s">
+        <v>22</v>
+      </c>
+      <c r="H60" s="163" t="s">
         <v>6</v>
       </c>
-      <c r="I55" s="102"/>
-      <c r="J55" s="102"/>
-      <c r="K55" s="102"/>
-      <c r="L55" s="102"/>
-      <c r="M55" s="102"/>
-      <c r="N55" s="18"/>
-      <c r="O55" s="116" t="s">
-        <v>44</v>
-      </c>
-      <c r="P55" s="114" t="s">
+      <c r="I60" s="149"/>
+      <c r="J60" s="149"/>
+      <c r="K60" s="149"/>
+      <c r="L60" s="149"/>
+      <c r="M60" s="149"/>
+      <c r="N60" s="18"/>
+      <c r="O60" s="120" t="s">
+        <v>43</v>
+      </c>
+      <c r="P60" s="122" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q60" s="122" t="s">
         <v>24</v>
       </c>
-      <c r="Q55" s="114" t="s">
+      <c r="R60" s="154" t="s">
         <v>25</v>
       </c>
-      <c r="R55" s="137" t="s">
+      <c r="S60" s="163" t="s">
         <v>26</v>
       </c>
-      <c r="S55" s="109" t="s">
-        <v>27</v>
-      </c>
-      <c r="T55" s="102"/>
-      <c r="U55" s="102"/>
-      <c r="V55" s="102"/>
-      <c r="W55" s="102"/>
-      <c r="X55" s="102"/>
-      <c r="Y55" s="1"/>
-      <c r="Z55" s="1"/>
-      <c r="AA55" s="1"/>
-      <c r="AB55" s="1"/>
-      <c r="AC55" s="1"/>
-      <c r="AD55" s="1"/>
-      <c r="AE55" s="1"/>
-      <c r="AF55" s="1"/>
-      <c r="AG55" s="1"/>
-    </row>
-    <row r="56" spans="1:33" ht="17.25" customHeight="1" thickBot="1">
-      <c r="A56" s="157"/>
-      <c r="B56" s="158"/>
-      <c r="C56" s="158"/>
-      <c r="D56" s="159"/>
-      <c r="E56" s="176"/>
-      <c r="F56" s="159"/>
-      <c r="G56" s="177"/>
-      <c r="H56" s="38" t="s">
+      <c r="T60" s="149"/>
+      <c r="U60" s="149"/>
+      <c r="V60" s="149"/>
+      <c r="W60" s="149"/>
+      <c r="X60" s="149"/>
+      <c r="Y60" s="1"/>
+      <c r="Z60" s="1"/>
+      <c r="AA60" s="1"/>
+      <c r="AB60" s="1"/>
+      <c r="AC60" s="1"/>
+      <c r="AD60" s="1"/>
+      <c r="AE60" s="1"/>
+      <c r="AF60" s="1"/>
+      <c r="AG60" s="1"/>
+    </row>
+    <row r="61" spans="1:33" ht="17.25" customHeight="1" thickBot="1">
+      <c r="A61" s="139"/>
+      <c r="B61" s="140"/>
+      <c r="C61" s="140"/>
+      <c r="D61" s="141"/>
+      <c r="E61" s="164"/>
+      <c r="F61" s="141"/>
+      <c r="G61" s="121"/>
+      <c r="H61" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="I56" s="38" t="s">
+      <c r="I61" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="J56" s="38" t="s">
+      <c r="J61" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="K56" s="38" t="s">
+      <c r="K61" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="L56" s="38" t="s">
+      <c r="L61" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="M56" s="37" t="s">
+      <c r="M61" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="N56" s="37" t="s">
+      <c r="N61" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="O56" s="177"/>
-      <c r="P56" s="198"/>
-      <c r="Q56" s="199"/>
-      <c r="R56" s="177"/>
-      <c r="S56" s="38" t="s">
+      <c r="O61" s="121"/>
+      <c r="P61" s="123"/>
+      <c r="Q61" s="124"/>
+      <c r="R61" s="121"/>
+      <c r="S61" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="T56" s="38" t="s">
+      <c r="T61" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="U56" s="38" t="s">
+      <c r="U61" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="V56" s="38" t="s">
+      <c r="V61" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="W56" s="38" t="s">
+      <c r="W61" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="X56" s="37" t="s">
+      <c r="X61" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="Y56" s="44"/>
-      <c r="Z56" s="1"/>
-      <c r="AA56" s="1"/>
-      <c r="AB56" s="1"/>
-      <c r="AC56" s="1"/>
-      <c r="AD56" s="1"/>
-      <c r="AE56" s="1"/>
-      <c r="AF56" s="1"/>
-      <c r="AG56" s="1"/>
-    </row>
-    <row r="57" spans="1:33" s="43" customFormat="1" ht="12" customHeight="1">
-      <c r="A57" s="144" t="s">
-        <v>64</v>
-      </c>
-      <c r="B57" s="145"/>
-      <c r="C57" s="145"/>
-      <c r="D57" s="146"/>
-      <c r="E57" s="144" t="s">
-        <v>105</v>
-      </c>
-      <c r="F57" s="145"/>
-      <c r="G57" s="173"/>
-      <c r="H57" s="167" t="s">
-        <v>106</v>
-      </c>
-      <c r="I57" s="167"/>
-      <c r="J57" s="167"/>
-      <c r="K57" s="167"/>
-      <c r="L57" s="167"/>
-      <c r="M57" s="167"/>
-      <c r="N57" s="167"/>
-      <c r="O57" s="163"/>
-      <c r="P57" s="178">
+      <c r="Y61" s="44"/>
+      <c r="Z61" s="1"/>
+      <c r="AA61" s="1"/>
+      <c r="AB61" s="1"/>
+      <c r="AC61" s="1"/>
+      <c r="AD61" s="1"/>
+      <c r="AE61" s="1"/>
+      <c r="AF61" s="1"/>
+      <c r="AG61" s="1"/>
+    </row>
+    <row r="62" spans="1:33" s="43" customFormat="1" ht="12" customHeight="1">
+      <c r="A62" s="129" t="s">
+        <v>63</v>
+      </c>
+      <c r="B62" s="130"/>
+      <c r="C62" s="130"/>
+      <c r="D62" s="131"/>
+      <c r="E62" s="129" t="s">
+        <v>103</v>
+      </c>
+      <c r="F62" s="130"/>
+      <c r="G62" s="107"/>
+      <c r="H62" s="89" t="s">
+        <v>104</v>
+      </c>
+      <c r="I62" s="89"/>
+      <c r="J62" s="89"/>
+      <c r="K62" s="89"/>
+      <c r="L62" s="89"/>
+      <c r="M62" s="89"/>
+      <c r="N62" s="89"/>
+      <c r="O62" s="119"/>
+      <c r="P62" s="100">
         <v>42772</v>
       </c>
-      <c r="Q57" s="178">
+      <c r="Q62" s="100">
         <v>42772</v>
       </c>
-      <c r="R57" s="91">
+      <c r="R62" s="144">
         <v>10</v>
       </c>
-      <c r="S57" s="61"/>
-      <c r="T57" s="56"/>
-      <c r="U57" s="56">
+      <c r="S62" s="61"/>
+      <c r="T62" s="56"/>
+      <c r="U62" s="56">
         <v>1</v>
       </c>
-      <c r="V57" s="56">
+      <c r="V62" s="56">
         <v>2</v>
       </c>
-      <c r="W57" s="56">
-        <v>3</v>
-      </c>
-      <c r="X57" s="53">
-        <v>4</v>
-      </c>
-      <c r="Y57" s="200" t="s">
-        <v>107</v>
-      </c>
-      <c r="Z57" s="44"/>
-      <c r="AA57" s="45"/>
-      <c r="AB57" s="45"/>
-      <c r="AC57" s="45"/>
-      <c r="AD57" s="45"/>
-      <c r="AE57" s="45"/>
-      <c r="AF57" s="45"/>
-      <c r="AG57" s="45"/>
-    </row>
-    <row r="58" spans="1:33" s="43" customFormat="1" ht="12" customHeight="1">
-      <c r="A58" s="147"/>
-      <c r="B58" s="148"/>
-      <c r="C58" s="148"/>
-      <c r="D58" s="149"/>
-      <c r="E58" s="147"/>
-      <c r="F58" s="150"/>
-      <c r="G58" s="174"/>
-      <c r="H58" s="164"/>
-      <c r="I58" s="164"/>
-      <c r="J58" s="164"/>
-      <c r="K58" s="164"/>
-      <c r="L58" s="164"/>
-      <c r="M58" s="164"/>
-      <c r="N58" s="164"/>
-      <c r="O58" s="164"/>
-      <c r="P58" s="181"/>
-      <c r="Q58" s="179"/>
-      <c r="R58" s="92"/>
-      <c r="S58" s="65">
-        <v>6</v>
-      </c>
-      <c r="T58" s="57">
-        <v>7</v>
-      </c>
-      <c r="U58" s="57">
-        <v>8</v>
-      </c>
-      <c r="V58" s="57">
-        <v>9</v>
-      </c>
-      <c r="W58" s="57">
-        <v>10</v>
-      </c>
-      <c r="X58" s="49">
-        <v>11</v>
-      </c>
-      <c r="Y58" s="200"/>
-      <c r="Z58" s="44"/>
-      <c r="AA58" s="45"/>
-      <c r="AB58" s="45"/>
-      <c r="AC58" s="45"/>
-      <c r="AD58" s="45"/>
-      <c r="AE58" s="45"/>
-      <c r="AF58" s="45"/>
-      <c r="AG58" s="45"/>
-    </row>
-    <row r="59" spans="1:33" s="43" customFormat="1" ht="12" customHeight="1">
-      <c r="A59" s="147"/>
-      <c r="B59" s="148"/>
-      <c r="C59" s="148"/>
-      <c r="D59" s="149"/>
-      <c r="E59" s="147"/>
-      <c r="F59" s="150"/>
-      <c r="G59" s="174"/>
-      <c r="H59" s="164"/>
-      <c r="I59" s="164"/>
-      <c r="J59" s="164"/>
-      <c r="K59" s="164"/>
-      <c r="L59" s="164"/>
-      <c r="M59" s="164"/>
-      <c r="N59" s="164"/>
-      <c r="O59" s="164"/>
-      <c r="P59" s="181"/>
-      <c r="Q59" s="179"/>
-      <c r="R59" s="92"/>
-      <c r="S59" s="62">
-        <v>13</v>
-      </c>
-      <c r="T59" s="57">
-        <v>14</v>
-      </c>
-      <c r="U59" s="57">
-        <v>15</v>
-      </c>
-      <c r="V59" s="57">
-        <v>16</v>
-      </c>
-      <c r="W59" s="57">
-        <v>17</v>
-      </c>
-      <c r="X59" s="49">
-        <v>18</v>
-      </c>
-      <c r="Y59" s="200"/>
-      <c r="Z59" s="44"/>
-      <c r="AA59" s="45"/>
-      <c r="AB59" s="45"/>
-      <c r="AC59" s="45"/>
-      <c r="AD59" s="45"/>
-      <c r="AE59" s="45"/>
-      <c r="AF59" s="45"/>
-      <c r="AG59" s="45"/>
-    </row>
-    <row r="60" spans="1:33" s="43" customFormat="1" ht="12" customHeight="1">
-      <c r="A60" s="147"/>
-      <c r="B60" s="148"/>
-      <c r="C60" s="148"/>
-      <c r="D60" s="149"/>
-      <c r="E60" s="147"/>
-      <c r="F60" s="150"/>
-      <c r="G60" s="174"/>
-      <c r="H60" s="164"/>
-      <c r="I60" s="164"/>
-      <c r="J60" s="164"/>
-      <c r="K60" s="164"/>
-      <c r="L60" s="164"/>
-      <c r="M60" s="164"/>
-      <c r="N60" s="164"/>
-      <c r="O60" s="164"/>
-      <c r="P60" s="181"/>
-      <c r="Q60" s="179"/>
-      <c r="R60" s="92"/>
-      <c r="S60" s="62">
-        <v>20</v>
-      </c>
-      <c r="T60" s="57">
-        <v>21</v>
-      </c>
-      <c r="U60" s="57">
-        <v>22</v>
-      </c>
-      <c r="V60" s="57">
-        <v>23</v>
-      </c>
-      <c r="W60" s="57">
-        <v>24</v>
-      </c>
-      <c r="X60" s="49">
-        <v>25</v>
-      </c>
-      <c r="Y60" s="200"/>
-      <c r="Z60" s="44"/>
-      <c r="AA60" s="45"/>
-      <c r="AB60" s="45"/>
-      <c r="AC60" s="45"/>
-      <c r="AD60" s="45"/>
-      <c r="AE60" s="45"/>
-      <c r="AF60" s="45"/>
-      <c r="AG60" s="45"/>
-    </row>
-    <row r="61" spans="1:33" s="43" customFormat="1" ht="12" customHeight="1" thickBot="1">
-      <c r="A61" s="147"/>
-      <c r="B61" s="150"/>
-      <c r="C61" s="150"/>
-      <c r="D61" s="149"/>
-      <c r="E61" s="147"/>
-      <c r="F61" s="150"/>
-      <c r="G61" s="175"/>
-      <c r="H61" s="165"/>
-      <c r="I61" s="165"/>
-      <c r="J61" s="165"/>
-      <c r="K61" s="165"/>
-      <c r="L61" s="165"/>
-      <c r="M61" s="165"/>
-      <c r="N61" s="165"/>
-      <c r="O61" s="165"/>
-      <c r="P61" s="182"/>
-      <c r="Q61" s="180"/>
-      <c r="R61" s="93"/>
-      <c r="S61" s="63">
-        <v>27</v>
-      </c>
-      <c r="T61" s="64">
-        <v>28</v>
-      </c>
-      <c r="U61" s="64"/>
-      <c r="V61" s="64"/>
-      <c r="W61" s="64"/>
-      <c r="X61" s="54"/>
-      <c r="Y61" s="200"/>
-      <c r="Z61" s="44"/>
-      <c r="AA61" s="45"/>
-      <c r="AB61" s="45"/>
-      <c r="AC61" s="45"/>
-      <c r="AD61" s="45"/>
-      <c r="AE61" s="45"/>
-      <c r="AF61" s="45"/>
-      <c r="AG61" s="45"/>
-    </row>
-    <row r="62" spans="1:33" s="43" customFormat="1" ht="12" customHeight="1">
-      <c r="A62" s="151"/>
-      <c r="B62" s="152"/>
-      <c r="C62" s="152"/>
-      <c r="D62" s="152"/>
-      <c r="E62" s="151"/>
-      <c r="F62" s="172"/>
-      <c r="G62" s="173"/>
-      <c r="H62" s="183"/>
-      <c r="I62" s="167"/>
-      <c r="J62" s="167"/>
-      <c r="K62" s="167"/>
-      <c r="L62" s="167"/>
-      <c r="M62" s="167"/>
-      <c r="N62" s="167"/>
-      <c r="O62" s="163"/>
-      <c r="P62" s="166"/>
-      <c r="Q62" s="162"/>
-      <c r="R62" s="91"/>
-      <c r="S62" s="51"/>
-      <c r="T62" s="52"/>
-      <c r="U62" s="52">
-        <v>1</v>
-      </c>
-      <c r="V62" s="52">
-        <v>2</v>
-      </c>
-      <c r="W62" s="52">
+      <c r="W62" s="56">
         <v>3</v>
       </c>
       <c r="X62" s="53">
         <v>4</v>
       </c>
-      <c r="Y62" s="44"/>
+      <c r="Y62" s="103" t="s">
+        <v>105</v>
+      </c>
       <c r="Z62" s="44"/>
       <c r="AA62" s="45"/>
       <c r="AB62" s="45"/>
@@ -5721,43 +5905,43 @@
       <c r="AG62" s="45"/>
     </row>
     <row r="63" spans="1:33" s="43" customFormat="1" ht="12" customHeight="1">
-      <c r="A63" s="152"/>
-      <c r="B63" s="153"/>
-      <c r="C63" s="153"/>
-      <c r="D63" s="152"/>
-      <c r="E63" s="152"/>
-      <c r="F63" s="172"/>
-      <c r="G63" s="174"/>
-      <c r="H63" s="184"/>
-      <c r="I63" s="164"/>
-      <c r="J63" s="164"/>
-      <c r="K63" s="164"/>
-      <c r="L63" s="164"/>
-      <c r="M63" s="164"/>
-      <c r="N63" s="164"/>
-      <c r="O63" s="164"/>
-      <c r="P63" s="164"/>
-      <c r="Q63" s="92"/>
-      <c r="R63" s="92"/>
-      <c r="S63" s="47">
+      <c r="A63" s="132"/>
+      <c r="B63" s="133"/>
+      <c r="C63" s="133"/>
+      <c r="D63" s="134"/>
+      <c r="E63" s="132"/>
+      <c r="F63" s="135"/>
+      <c r="G63" s="108"/>
+      <c r="H63" s="90"/>
+      <c r="I63" s="90"/>
+      <c r="J63" s="90"/>
+      <c r="K63" s="90"/>
+      <c r="L63" s="90"/>
+      <c r="M63" s="90"/>
+      <c r="N63" s="90"/>
+      <c r="O63" s="90"/>
+      <c r="P63" s="101"/>
+      <c r="Q63" s="196"/>
+      <c r="R63" s="145"/>
+      <c r="S63" s="65">
         <v>6</v>
       </c>
-      <c r="T63" s="48">
+      <c r="T63" s="57">
         <v>7</v>
       </c>
-      <c r="U63" s="48">
+      <c r="U63" s="57">
         <v>8</v>
       </c>
-      <c r="V63" s="48">
+      <c r="V63" s="57">
         <v>9</v>
       </c>
-      <c r="W63" s="48">
+      <c r="W63" s="57">
         <v>10</v>
       </c>
       <c r="X63" s="49">
         <v>11</v>
       </c>
-      <c r="Y63" s="44"/>
+      <c r="Y63" s="103"/>
       <c r="Z63" s="44"/>
       <c r="AA63" s="45"/>
       <c r="AB63" s="45"/>
@@ -5768,43 +5952,43 @@
       <c r="AG63" s="45"/>
     </row>
     <row r="64" spans="1:33" s="43" customFormat="1" ht="12" customHeight="1">
-      <c r="A64" s="152"/>
-      <c r="B64" s="153"/>
-      <c r="C64" s="153"/>
-      <c r="D64" s="152"/>
-      <c r="E64" s="152"/>
-      <c r="F64" s="172"/>
-      <c r="G64" s="174"/>
-      <c r="H64" s="184"/>
-      <c r="I64" s="164"/>
-      <c r="J64" s="164"/>
-      <c r="K64" s="164"/>
-      <c r="L64" s="164"/>
-      <c r="M64" s="164"/>
-      <c r="N64" s="164"/>
-      <c r="O64" s="164"/>
-      <c r="P64" s="164"/>
-      <c r="Q64" s="92"/>
-      <c r="R64" s="92"/>
-      <c r="S64" s="47">
+      <c r="A64" s="132"/>
+      <c r="B64" s="133"/>
+      <c r="C64" s="133"/>
+      <c r="D64" s="134"/>
+      <c r="E64" s="132"/>
+      <c r="F64" s="135"/>
+      <c r="G64" s="108"/>
+      <c r="H64" s="90"/>
+      <c r="I64" s="90"/>
+      <c r="J64" s="90"/>
+      <c r="K64" s="90"/>
+      <c r="L64" s="90"/>
+      <c r="M64" s="90"/>
+      <c r="N64" s="90"/>
+      <c r="O64" s="90"/>
+      <c r="P64" s="101"/>
+      <c r="Q64" s="196"/>
+      <c r="R64" s="145"/>
+      <c r="S64" s="62">
         <v>13</v>
       </c>
-      <c r="T64" s="48">
+      <c r="T64" s="57">
         <v>14</v>
       </c>
-      <c r="U64" s="48">
+      <c r="U64" s="57">
         <v>15</v>
       </c>
-      <c r="V64" s="31">
+      <c r="V64" s="57">
         <v>16</v>
       </c>
-      <c r="W64" s="31">
+      <c r="W64" s="57">
         <v>17</v>
       </c>
       <c r="X64" s="49">
         <v>18</v>
       </c>
-      <c r="Y64" s="44"/>
+      <c r="Y64" s="103"/>
       <c r="Z64" s="44"/>
       <c r="AA64" s="45"/>
       <c r="AB64" s="45"/>
@@ -5815,43 +5999,43 @@
       <c r="AG64" s="45"/>
     </row>
     <row r="65" spans="1:33" s="43" customFormat="1" ht="12" customHeight="1">
-      <c r="A65" s="152"/>
-      <c r="B65" s="153"/>
-      <c r="C65" s="153"/>
-      <c r="D65" s="152"/>
-      <c r="E65" s="152"/>
-      <c r="F65" s="172"/>
-      <c r="G65" s="174"/>
-      <c r="H65" s="184"/>
-      <c r="I65" s="164"/>
-      <c r="J65" s="164"/>
-      <c r="K65" s="164"/>
-      <c r="L65" s="164"/>
-      <c r="M65" s="164"/>
-      <c r="N65" s="164"/>
-      <c r="O65" s="164"/>
-      <c r="P65" s="164"/>
-      <c r="Q65" s="92"/>
-      <c r="R65" s="92"/>
-      <c r="S65" s="30">
+      <c r="A65" s="132"/>
+      <c r="B65" s="133"/>
+      <c r="C65" s="133"/>
+      <c r="D65" s="134"/>
+      <c r="E65" s="132"/>
+      <c r="F65" s="135"/>
+      <c r="G65" s="108"/>
+      <c r="H65" s="90"/>
+      <c r="I65" s="90"/>
+      <c r="J65" s="90"/>
+      <c r="K65" s="90"/>
+      <c r="L65" s="90"/>
+      <c r="M65" s="90"/>
+      <c r="N65" s="90"/>
+      <c r="O65" s="90"/>
+      <c r="P65" s="101"/>
+      <c r="Q65" s="196"/>
+      <c r="R65" s="145"/>
+      <c r="S65" s="62">
         <v>20</v>
       </c>
-      <c r="T65" s="31">
+      <c r="T65" s="57">
         <v>21</v>
       </c>
-      <c r="U65" s="31">
+      <c r="U65" s="57">
         <v>22</v>
       </c>
-      <c r="V65" s="31">
+      <c r="V65" s="57">
         <v>23</v>
       </c>
-      <c r="W65" s="31">
+      <c r="W65" s="57">
         <v>24</v>
       </c>
       <c r="X65" s="49">
         <v>25</v>
       </c>
-      <c r="Y65" s="44"/>
+      <c r="Y65" s="103"/>
       <c r="Z65" s="44"/>
       <c r="AA65" s="45"/>
       <c r="AB65" s="45"/>
@@ -5862,35 +6046,35 @@
       <c r="AG65" s="45"/>
     </row>
     <row r="66" spans="1:33" s="43" customFormat="1" ht="12" customHeight="1" thickBot="1">
-      <c r="A66" s="152"/>
-      <c r="B66" s="152"/>
-      <c r="C66" s="152"/>
-      <c r="D66" s="152"/>
-      <c r="E66" s="152"/>
-      <c r="F66" s="172"/>
-      <c r="G66" s="175"/>
-      <c r="H66" s="185"/>
-      <c r="I66" s="165"/>
-      <c r="J66" s="165"/>
-      <c r="K66" s="165"/>
-      <c r="L66" s="165"/>
-      <c r="M66" s="165"/>
-      <c r="N66" s="165"/>
-      <c r="O66" s="165"/>
-      <c r="P66" s="165"/>
-      <c r="Q66" s="93"/>
-      <c r="R66" s="93"/>
-      <c r="S66" s="32">
+      <c r="A66" s="132"/>
+      <c r="B66" s="135"/>
+      <c r="C66" s="135"/>
+      <c r="D66" s="134"/>
+      <c r="E66" s="132"/>
+      <c r="F66" s="135"/>
+      <c r="G66" s="109"/>
+      <c r="H66" s="91"/>
+      <c r="I66" s="91"/>
+      <c r="J66" s="91"/>
+      <c r="K66" s="91"/>
+      <c r="L66" s="91"/>
+      <c r="M66" s="91"/>
+      <c r="N66" s="91"/>
+      <c r="O66" s="91"/>
+      <c r="P66" s="102"/>
+      <c r="Q66" s="197"/>
+      <c r="R66" s="146"/>
+      <c r="S66" s="63">
         <v>27</v>
       </c>
-      <c r="T66" s="33">
+      <c r="T66" s="64">
         <v>28</v>
       </c>
-      <c r="U66" s="34"/>
-      <c r="V66" s="34"/>
-      <c r="W66" s="34"/>
+      <c r="U66" s="64"/>
+      <c r="V66" s="64"/>
+      <c r="W66" s="64"/>
       <c r="X66" s="54"/>
-      <c r="Y66" s="44"/>
+      <c r="Y66" s="103"/>
       <c r="Z66" s="44"/>
       <c r="AA66" s="45"/>
       <c r="AB66" s="45"/>
@@ -5900,135 +6084,276 @@
       <c r="AF66" s="45"/>
       <c r="AG66" s="45"/>
     </row>
-    <row r="67" spans="1:33" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A67" s="140"/>
-      <c r="B67" s="140"/>
-      <c r="C67" s="140"/>
-      <c r="D67" s="140"/>
-      <c r="E67" s="140"/>
-      <c r="F67" s="140"/>
-      <c r="G67" s="140"/>
-      <c r="H67" s="141" t="s">
-        <v>36</v>
-      </c>
-      <c r="I67" s="142"/>
-      <c r="J67" s="142"/>
-      <c r="K67" s="142"/>
-      <c r="L67" s="142"/>
-      <c r="M67" s="142"/>
-      <c r="N67" s="142"/>
-      <c r="O67" s="142"/>
-      <c r="P67" s="143"/>
-      <c r="R67" s="55">
-        <f>Q53+R57+R62</f>
+    <row r="67" spans="1:33" s="43" customFormat="1" ht="12" customHeight="1">
+      <c r="A67" s="201" t="s">
+        <v>63</v>
+      </c>
+      <c r="B67" s="202"/>
+      <c r="C67" s="202"/>
+      <c r="D67" s="203"/>
+      <c r="E67" s="156" t="s">
         <v>106</v>
       </c>
-      <c r="X67" s="36"/>
-      <c r="Y67" s="6"/>
-      <c r="Z67" s="6"/>
-      <c r="AA67" s="7"/>
-      <c r="AB67" s="7"/>
-      <c r="AC67" s="7"/>
-      <c r="AD67" s="7"/>
-      <c r="AE67" s="7"/>
-      <c r="AF67" s="7"/>
-      <c r="AG67" s="7"/>
-    </row>
-    <row r="68" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A68" s="9"/>
-      <c r="B68" s="9"/>
-      <c r="C68" s="9"/>
-      <c r="E68" s="9"/>
-      <c r="F68" s="9"/>
-      <c r="G68" s="9"/>
-      <c r="O68" s="10"/>
-      <c r="P68" s="9"/>
-      <c r="Y68" s="1"/>
-      <c r="Z68" s="1"/>
-      <c r="AA68" s="1"/>
-      <c r="AB68" s="1"/>
-      <c r="AC68" s="1"/>
-      <c r="AD68" s="1"/>
-      <c r="AE68" s="1"/>
-      <c r="AF68" s="1"/>
-      <c r="AG68" s="1"/>
-    </row>
-    <row r="69" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A69" s="9"/>
-      <c r="B69" s="9"/>
-      <c r="C69" s="9"/>
-      <c r="E69" s="9"/>
-      <c r="F69" s="9"/>
-      <c r="G69" s="9"/>
-      <c r="O69" s="9"/>
-      <c r="P69" s="9"/>
-      <c r="Y69" s="1"/>
-      <c r="Z69" s="1"/>
-      <c r="AA69" s="1"/>
-      <c r="AB69" s="1"/>
-      <c r="AC69" s="1"/>
-      <c r="AD69" s="1"/>
-      <c r="AE69" s="1"/>
-      <c r="AF69" s="1"/>
-      <c r="AG69" s="1"/>
-    </row>
-    <row r="70" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A70" s="9"/>
-      <c r="B70" s="9"/>
-      <c r="C70" s="9"/>
-      <c r="E70" s="9"/>
-      <c r="F70" s="9"/>
-      <c r="G70" s="9"/>
-      <c r="O70" s="9"/>
-      <c r="P70" s="9"/>
-      <c r="Y70" s="1"/>
-      <c r="Z70" s="1"/>
-      <c r="AA70" s="1"/>
-      <c r="AB70" s="1"/>
-      <c r="AC70" s="1"/>
-      <c r="AD70" s="1"/>
-      <c r="AE70" s="1"/>
-      <c r="AF70" s="1"/>
-      <c r="AG70" s="1"/>
-    </row>
-    <row r="71" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A71" s="9"/>
-      <c r="B71" s="9"/>
-      <c r="C71" s="9"/>
-      <c r="E71" s="9"/>
-      <c r="F71" s="9"/>
-      <c r="G71" s="9"/>
-      <c r="O71" s="9"/>
-      <c r="P71" s="9"/>
-      <c r="Q71" s="9"/>
-      <c r="Y71" s="1"/>
-      <c r="Z71" s="1"/>
-      <c r="AA71" s="1"/>
-      <c r="AB71" s="1"/>
-      <c r="AC71" s="1"/>
-      <c r="AD71" s="1"/>
-      <c r="AE71" s="1"/>
-      <c r="AF71" s="1"/>
-      <c r="AG71" s="1"/>
-    </row>
-    <row r="72" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A72" s="9"/>
-      <c r="B72" s="9"/>
-      <c r="C72" s="9"/>
-      <c r="E72" s="9"/>
-      <c r="F72" s="9"/>
-      <c r="G72" s="9"/>
-      <c r="O72" s="9"/>
-      <c r="P72" s="9"/>
-      <c r="Y72" s="1"/>
-      <c r="Z72" s="1"/>
-      <c r="AA72" s="1"/>
-      <c r="AB72" s="1"/>
-      <c r="AC72" s="1"/>
-      <c r="AD72" s="1"/>
-      <c r="AE72" s="1"/>
-      <c r="AF72" s="1"/>
-      <c r="AG72" s="1"/>
+      <c r="F67" s="157"/>
+      <c r="G67" s="107"/>
+      <c r="H67" s="89" t="s">
+        <v>107</v>
+      </c>
+      <c r="I67" s="89"/>
+      <c r="J67" s="89"/>
+      <c r="K67" s="89"/>
+      <c r="L67" s="89"/>
+      <c r="M67" s="89"/>
+      <c r="N67" s="89"/>
+      <c r="O67" s="119"/>
+      <c r="P67" s="147">
+        <v>42413</v>
+      </c>
+      <c r="Q67" s="147">
+        <v>42413</v>
+      </c>
+      <c r="R67" s="144">
+        <v>2</v>
+      </c>
+      <c r="S67" s="51"/>
+      <c r="T67" s="52"/>
+      <c r="U67" s="52">
+        <v>1</v>
+      </c>
+      <c r="V67" s="52">
+        <v>2</v>
+      </c>
+      <c r="W67" s="52">
+        <v>3</v>
+      </c>
+      <c r="X67" s="53">
+        <v>4</v>
+      </c>
+      <c r="Y67" s="103" t="s">
+        <v>105</v>
+      </c>
+      <c r="Z67" s="44"/>
+      <c r="AA67" s="45"/>
+      <c r="AB67" s="45"/>
+      <c r="AC67" s="45"/>
+      <c r="AD67" s="45"/>
+      <c r="AE67" s="45"/>
+      <c r="AF67" s="45"/>
+      <c r="AG67" s="45"/>
+    </row>
+    <row r="68" spans="1:33" s="43" customFormat="1" ht="12" customHeight="1">
+      <c r="A68" s="204"/>
+      <c r="B68" s="205"/>
+      <c r="C68" s="205"/>
+      <c r="D68" s="206"/>
+      <c r="E68" s="132"/>
+      <c r="F68" s="158"/>
+      <c r="G68" s="108"/>
+      <c r="H68" s="90"/>
+      <c r="I68" s="90"/>
+      <c r="J68" s="90"/>
+      <c r="K68" s="90"/>
+      <c r="L68" s="90"/>
+      <c r="M68" s="90"/>
+      <c r="N68" s="90"/>
+      <c r="O68" s="90"/>
+      <c r="P68" s="90"/>
+      <c r="Q68" s="90"/>
+      <c r="R68" s="145"/>
+      <c r="S68" s="47">
+        <v>6</v>
+      </c>
+      <c r="T68" s="48">
+        <v>7</v>
+      </c>
+      <c r="U68" s="48">
+        <v>8</v>
+      </c>
+      <c r="V68" s="48">
+        <v>9</v>
+      </c>
+      <c r="W68" s="48">
+        <v>10</v>
+      </c>
+      <c r="X68" s="49">
+        <v>11</v>
+      </c>
+      <c r="Y68" s="103"/>
+      <c r="Z68" s="44"/>
+      <c r="AA68" s="45"/>
+      <c r="AB68" s="45"/>
+      <c r="AC68" s="45"/>
+      <c r="AD68" s="45"/>
+      <c r="AE68" s="45"/>
+      <c r="AF68" s="45"/>
+      <c r="AG68" s="45"/>
+    </row>
+    <row r="69" spans="1:33" s="43" customFormat="1" ht="12" customHeight="1">
+      <c r="A69" s="204"/>
+      <c r="B69" s="205"/>
+      <c r="C69" s="205"/>
+      <c r="D69" s="206"/>
+      <c r="E69" s="132"/>
+      <c r="F69" s="158"/>
+      <c r="G69" s="108"/>
+      <c r="H69" s="90"/>
+      <c r="I69" s="90"/>
+      <c r="J69" s="90"/>
+      <c r="K69" s="90"/>
+      <c r="L69" s="90"/>
+      <c r="M69" s="90"/>
+      <c r="N69" s="90"/>
+      <c r="O69" s="90"/>
+      <c r="P69" s="90"/>
+      <c r="Q69" s="90"/>
+      <c r="R69" s="145"/>
+      <c r="S69" s="86">
+        <v>13</v>
+      </c>
+      <c r="T69" s="48">
+        <v>14</v>
+      </c>
+      <c r="U69" s="48">
+        <v>15</v>
+      </c>
+      <c r="V69" s="31">
+        <v>16</v>
+      </c>
+      <c r="W69" s="31">
+        <v>17</v>
+      </c>
+      <c r="X69" s="49">
+        <v>18</v>
+      </c>
+      <c r="Y69" s="103"/>
+      <c r="Z69" s="44"/>
+      <c r="AA69" s="45"/>
+      <c r="AB69" s="45"/>
+      <c r="AC69" s="45"/>
+      <c r="AD69" s="45"/>
+      <c r="AE69" s="45"/>
+      <c r="AF69" s="45"/>
+      <c r="AG69" s="45"/>
+    </row>
+    <row r="70" spans="1:33" s="43" customFormat="1" ht="12" customHeight="1">
+      <c r="A70" s="204"/>
+      <c r="B70" s="205"/>
+      <c r="C70" s="205"/>
+      <c r="D70" s="206"/>
+      <c r="E70" s="132"/>
+      <c r="F70" s="158"/>
+      <c r="G70" s="108"/>
+      <c r="H70" s="90"/>
+      <c r="I70" s="90"/>
+      <c r="J70" s="90"/>
+      <c r="K70" s="90"/>
+      <c r="L70" s="90"/>
+      <c r="M70" s="90"/>
+      <c r="N70" s="90"/>
+      <c r="O70" s="90"/>
+      <c r="P70" s="90"/>
+      <c r="Q70" s="90"/>
+      <c r="R70" s="145"/>
+      <c r="S70" s="30">
+        <v>20</v>
+      </c>
+      <c r="T70" s="31">
+        <v>21</v>
+      </c>
+      <c r="U70" s="31">
+        <v>22</v>
+      </c>
+      <c r="V70" s="31">
+        <v>23</v>
+      </c>
+      <c r="W70" s="31">
+        <v>24</v>
+      </c>
+      <c r="X70" s="49">
+        <v>25</v>
+      </c>
+      <c r="Y70" s="103"/>
+      <c r="Z70" s="44"/>
+      <c r="AA70" s="45"/>
+      <c r="AB70" s="45"/>
+      <c r="AC70" s="45"/>
+      <c r="AD70" s="45"/>
+      <c r="AE70" s="45"/>
+      <c r="AF70" s="45"/>
+      <c r="AG70" s="45"/>
+    </row>
+    <row r="71" spans="1:33" s="43" customFormat="1" ht="12" customHeight="1" thickBot="1">
+      <c r="A71" s="207"/>
+      <c r="B71" s="208"/>
+      <c r="C71" s="208"/>
+      <c r="D71" s="209"/>
+      <c r="E71" s="159"/>
+      <c r="F71" s="160"/>
+      <c r="G71" s="109"/>
+      <c r="H71" s="91"/>
+      <c r="I71" s="91"/>
+      <c r="J71" s="91"/>
+      <c r="K71" s="91"/>
+      <c r="L71" s="91"/>
+      <c r="M71" s="91"/>
+      <c r="N71" s="91"/>
+      <c r="O71" s="91"/>
+      <c r="P71" s="91"/>
+      <c r="Q71" s="91"/>
+      <c r="R71" s="146"/>
+      <c r="S71" s="32">
+        <v>27</v>
+      </c>
+      <c r="T71" s="33">
+        <v>28</v>
+      </c>
+      <c r="U71" s="34"/>
+      <c r="V71" s="34"/>
+      <c r="W71" s="34"/>
+      <c r="X71" s="54"/>
+      <c r="Y71" s="103"/>
+      <c r="Z71" s="44"/>
+      <c r="AA71" s="45"/>
+      <c r="AB71" s="45"/>
+      <c r="AC71" s="45"/>
+      <c r="AD71" s="45"/>
+      <c r="AE71" s="45"/>
+      <c r="AF71" s="45"/>
+      <c r="AG71" s="45"/>
+    </row>
+    <row r="72" spans="1:33" ht="33.75" customHeight="1" thickBot="1">
+      <c r="A72" s="125"/>
+      <c r="B72" s="125"/>
+      <c r="C72" s="125"/>
+      <c r="D72" s="125"/>
+      <c r="E72" s="125"/>
+      <c r="F72" s="125"/>
+      <c r="G72" s="125"/>
+      <c r="H72" s="126" t="s">
+        <v>35</v>
+      </c>
+      <c r="I72" s="127"/>
+      <c r="J72" s="127"/>
+      <c r="K72" s="127"/>
+      <c r="L72" s="127"/>
+      <c r="M72" s="127"/>
+      <c r="N72" s="127"/>
+      <c r="O72" s="127"/>
+      <c r="P72" s="128"/>
+      <c r="R72" s="55">
+        <f>Q58+R62+R67</f>
+        <v>120</v>
+      </c>
+      <c r="X72" s="36"/>
+      <c r="Y72" s="6"/>
+      <c r="Z72" s="6"/>
+      <c r="AA72" s="7"/>
+      <c r="AB72" s="7"/>
+      <c r="AC72" s="7"/>
+      <c r="AD72" s="7"/>
+      <c r="AE72" s="7"/>
+      <c r="AF72" s="7"/>
+      <c r="AG72" s="7"/>
     </row>
     <row r="73" spans="1:33" ht="12.75" customHeight="1">
       <c r="A73" s="9"/>
@@ -6037,7 +6362,7 @@
       <c r="E73" s="9"/>
       <c r="F73" s="9"/>
       <c r="G73" s="9"/>
-      <c r="O73" s="9"/>
+      <c r="O73" s="10"/>
       <c r="P73" s="9"/>
       <c r="Y73" s="1"/>
       <c r="Z73" s="1"/>
@@ -6096,6 +6421,7 @@
       <c r="G76" s="9"/>
       <c r="O76" s="9"/>
       <c r="P76" s="9"/>
+      <c r="Q76" s="9"/>
       <c r="Y76" s="1"/>
       <c r="Z76" s="1"/>
       <c r="AA76" s="1"/>
@@ -24156,166 +24482,156 @@
       <c r="AF1026" s="1"/>
       <c r="AG1026" s="1"/>
     </row>
+    <row r="1027" spans="1:33" ht="12.75" customHeight="1">
+      <c r="A1027" s="9"/>
+      <c r="B1027" s="9"/>
+      <c r="C1027" s="9"/>
+      <c r="E1027" s="9"/>
+      <c r="F1027" s="9"/>
+      <c r="G1027" s="9"/>
+      <c r="O1027" s="9"/>
+      <c r="P1027" s="9"/>
+      <c r="Y1027" s="1"/>
+      <c r="Z1027" s="1"/>
+      <c r="AA1027" s="1"/>
+      <c r="AB1027" s="1"/>
+      <c r="AC1027" s="1"/>
+      <c r="AD1027" s="1"/>
+      <c r="AE1027" s="1"/>
+      <c r="AF1027" s="1"/>
+      <c r="AG1027" s="1"/>
+    </row>
+    <row r="1028" spans="1:33" ht="12.75" customHeight="1">
+      <c r="A1028" s="9"/>
+      <c r="B1028" s="9"/>
+      <c r="C1028" s="9"/>
+      <c r="E1028" s="9"/>
+      <c r="F1028" s="9"/>
+      <c r="G1028" s="9"/>
+      <c r="O1028" s="9"/>
+      <c r="P1028" s="9"/>
+      <c r="Y1028" s="1"/>
+      <c r="Z1028" s="1"/>
+      <c r="AA1028" s="1"/>
+      <c r="AB1028" s="1"/>
+      <c r="AC1028" s="1"/>
+      <c r="AD1028" s="1"/>
+      <c r="AE1028" s="1"/>
+      <c r="AF1028" s="1"/>
+      <c r="AG1028" s="1"/>
+    </row>
+    <row r="1029" spans="1:33" ht="12.75" customHeight="1">
+      <c r="A1029" s="9"/>
+      <c r="B1029" s="9"/>
+      <c r="C1029" s="9"/>
+      <c r="E1029" s="9"/>
+      <c r="F1029" s="9"/>
+      <c r="G1029" s="9"/>
+      <c r="O1029" s="9"/>
+      <c r="P1029" s="9"/>
+      <c r="Y1029" s="1"/>
+      <c r="Z1029" s="1"/>
+      <c r="AA1029" s="1"/>
+      <c r="AB1029" s="1"/>
+      <c r="AC1029" s="1"/>
+      <c r="AD1029" s="1"/>
+      <c r="AE1029" s="1"/>
+      <c r="AF1029" s="1"/>
+      <c r="AG1029" s="1"/>
+    </row>
+    <row r="1030" spans="1:33" ht="12.75" customHeight="1">
+      <c r="A1030" s="9"/>
+      <c r="B1030" s="9"/>
+      <c r="C1030" s="9"/>
+      <c r="E1030" s="9"/>
+      <c r="F1030" s="9"/>
+      <c r="G1030" s="9"/>
+      <c r="O1030" s="9"/>
+      <c r="P1030" s="9"/>
+      <c r="Y1030" s="1"/>
+      <c r="Z1030" s="1"/>
+      <c r="AA1030" s="1"/>
+      <c r="AB1030" s="1"/>
+      <c r="AC1030" s="1"/>
+      <c r="AD1030" s="1"/>
+      <c r="AE1030" s="1"/>
+      <c r="AF1030" s="1"/>
+      <c r="AG1030" s="1"/>
+    </row>
+    <row r="1031" spans="1:33" ht="12.75" customHeight="1">
+      <c r="A1031" s="9"/>
+      <c r="B1031" s="9"/>
+      <c r="C1031" s="9"/>
+      <c r="E1031" s="9"/>
+      <c r="F1031" s="9"/>
+      <c r="G1031" s="9"/>
+      <c r="O1031" s="9"/>
+      <c r="P1031" s="9"/>
+      <c r="Y1031" s="1"/>
+      <c r="Z1031" s="1"/>
+      <c r="AA1031" s="1"/>
+      <c r="AB1031" s="1"/>
+      <c r="AC1031" s="1"/>
+      <c r="AD1031" s="1"/>
+      <c r="AE1031" s="1"/>
+      <c r="AF1031" s="1"/>
+      <c r="AG1031" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="220">
-    <mergeCell ref="Y57:Y61"/>
-    <mergeCell ref="A54:W54"/>
-    <mergeCell ref="G57:G61"/>
-    <mergeCell ref="B2:C4"/>
-    <mergeCell ref="B5:C7"/>
-    <mergeCell ref="D3:F7"/>
-    <mergeCell ref="G3:N3"/>
-    <mergeCell ref="G4:N4"/>
-    <mergeCell ref="G5:N5"/>
-    <mergeCell ref="G6:N6"/>
-    <mergeCell ref="O3:V3"/>
-    <mergeCell ref="O4:V4"/>
-    <mergeCell ref="O5:V5"/>
-    <mergeCell ref="O6:V6"/>
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="O57:O61"/>
-    <mergeCell ref="N57:N61"/>
-    <mergeCell ref="O55:O56"/>
-    <mergeCell ref="P55:P56"/>
-    <mergeCell ref="Q55:Q56"/>
-    <mergeCell ref="H57:H61"/>
-    <mergeCell ref="I57:I61"/>
-    <mergeCell ref="K57:K61"/>
-    <mergeCell ref="J57:J61"/>
-    <mergeCell ref="M57:M61"/>
-    <mergeCell ref="L62:L66"/>
-    <mergeCell ref="E55:F56"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="H55:M55"/>
-    <mergeCell ref="R55:R56"/>
-    <mergeCell ref="Q57:Q61"/>
-    <mergeCell ref="R57:R61"/>
-    <mergeCell ref="L57:L61"/>
-    <mergeCell ref="P57:P61"/>
-    <mergeCell ref="H62:H66"/>
-    <mergeCell ref="S55:X55"/>
-    <mergeCell ref="A67:G67"/>
-    <mergeCell ref="H67:P67"/>
-    <mergeCell ref="A57:D61"/>
-    <mergeCell ref="E57:F61"/>
-    <mergeCell ref="A62:D66"/>
-    <mergeCell ref="A55:D56"/>
-    <mergeCell ref="D2:X2"/>
+  <mergeCells count="239">
+    <mergeCell ref="Y67:Y71"/>
+    <mergeCell ref="J43:J47"/>
+    <mergeCell ref="K43:K47"/>
+    <mergeCell ref="L43:L47"/>
+    <mergeCell ref="M43:M47"/>
+    <mergeCell ref="N43:N47"/>
+    <mergeCell ref="O43:O47"/>
+    <mergeCell ref="P43:P47"/>
+    <mergeCell ref="Q43:Q47"/>
+    <mergeCell ref="R43:R47"/>
+    <mergeCell ref="J53:J57"/>
+    <mergeCell ref="K53:K57"/>
+    <mergeCell ref="L53:L57"/>
+    <mergeCell ref="M53:M57"/>
+    <mergeCell ref="N53:N57"/>
+    <mergeCell ref="O53:O57"/>
+    <mergeCell ref="P53:P57"/>
+    <mergeCell ref="Q53:Q57"/>
+    <mergeCell ref="R53:R57"/>
+    <mergeCell ref="R58:W58"/>
+    <mergeCell ref="H58:O58"/>
+    <mergeCell ref="L67:L71"/>
+    <mergeCell ref="Q62:Q66"/>
     <mergeCell ref="R62:R66"/>
-    <mergeCell ref="Q62:Q66"/>
-    <mergeCell ref="O62:O66"/>
-    <mergeCell ref="P62:P66"/>
-    <mergeCell ref="M62:M66"/>
-    <mergeCell ref="N62:N66"/>
-    <mergeCell ref="E23:E27"/>
-    <mergeCell ref="F23:F27"/>
-    <mergeCell ref="S10:X11"/>
-    <mergeCell ref="R10:R11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="E62:F66"/>
-    <mergeCell ref="G62:G66"/>
-    <mergeCell ref="K62:K66"/>
-    <mergeCell ref="I62:I66"/>
-    <mergeCell ref="J62:J66"/>
-    <mergeCell ref="R53:W53"/>
-    <mergeCell ref="H53:O53"/>
-    <mergeCell ref="Q10:Q11"/>
-    <mergeCell ref="O10:O11"/>
-    <mergeCell ref="P10:P11"/>
-    <mergeCell ref="O8:W8"/>
-    <mergeCell ref="W4:X6"/>
-    <mergeCell ref="G7:X7"/>
-    <mergeCell ref="A9:X9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="I23:I27"/>
-    <mergeCell ref="P23:P27"/>
-    <mergeCell ref="Q23:Q27"/>
-    <mergeCell ref="A23:A27"/>
-    <mergeCell ref="B23:B27"/>
-    <mergeCell ref="R23:R27"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="G23:G27"/>
-    <mergeCell ref="C23:C27"/>
-    <mergeCell ref="D23:D27"/>
-    <mergeCell ref="H10:M10"/>
-    <mergeCell ref="A28:A32"/>
-    <mergeCell ref="B28:B32"/>
-    <mergeCell ref="C28:C32"/>
-    <mergeCell ref="D28:D32"/>
-    <mergeCell ref="E28:E32"/>
-    <mergeCell ref="F28:F32"/>
-    <mergeCell ref="G28:G32"/>
-    <mergeCell ref="H28:H32"/>
-    <mergeCell ref="I28:I32"/>
-    <mergeCell ref="A13:A17"/>
-    <mergeCell ref="B13:B17"/>
-    <mergeCell ref="C13:C17"/>
-    <mergeCell ref="D13:D17"/>
-    <mergeCell ref="E13:E17"/>
-    <mergeCell ref="F13:F17"/>
-    <mergeCell ref="G13:G17"/>
-    <mergeCell ref="H13:H17"/>
-    <mergeCell ref="I13:I17"/>
-    <mergeCell ref="J13:J17"/>
-    <mergeCell ref="K13:K17"/>
-    <mergeCell ref="L13:L17"/>
-    <mergeCell ref="M13:M17"/>
-    <mergeCell ref="N28:N32"/>
-    <mergeCell ref="O28:O32"/>
-    <mergeCell ref="P28:P32"/>
-    <mergeCell ref="Q28:Q32"/>
-    <mergeCell ref="R28:R32"/>
-    <mergeCell ref="H23:H27"/>
-    <mergeCell ref="O23:O27"/>
-    <mergeCell ref="N23:N27"/>
-    <mergeCell ref="M23:M27"/>
-    <mergeCell ref="J23:J27"/>
-    <mergeCell ref="K23:K27"/>
-    <mergeCell ref="L23:L27"/>
-    <mergeCell ref="J28:J32"/>
-    <mergeCell ref="K28:K32"/>
-    <mergeCell ref="L28:L32"/>
-    <mergeCell ref="M28:M32"/>
-    <mergeCell ref="A48:A52"/>
-    <mergeCell ref="B48:B52"/>
-    <mergeCell ref="C48:C52"/>
-    <mergeCell ref="D48:D52"/>
-    <mergeCell ref="E48:E52"/>
-    <mergeCell ref="F48:F52"/>
-    <mergeCell ref="G48:G52"/>
-    <mergeCell ref="H48:H52"/>
-    <mergeCell ref="I48:I52"/>
-    <mergeCell ref="J48:J52"/>
-    <mergeCell ref="K48:K52"/>
-    <mergeCell ref="L48:L52"/>
-    <mergeCell ref="M48:M52"/>
-    <mergeCell ref="N48:N52"/>
-    <mergeCell ref="O48:O52"/>
-    <mergeCell ref="P48:P52"/>
-    <mergeCell ref="Q48:Q52"/>
-    <mergeCell ref="R48:R52"/>
-    <mergeCell ref="R13:R17"/>
-    <mergeCell ref="A18:A22"/>
-    <mergeCell ref="B18:B22"/>
-    <mergeCell ref="C18:C22"/>
-    <mergeCell ref="D18:D22"/>
-    <mergeCell ref="E18:E22"/>
-    <mergeCell ref="F18:F22"/>
-    <mergeCell ref="G18:G22"/>
-    <mergeCell ref="H18:H22"/>
-    <mergeCell ref="I18:I22"/>
-    <mergeCell ref="J18:J22"/>
-    <mergeCell ref="K18:K22"/>
-    <mergeCell ref="L18:L22"/>
-    <mergeCell ref="M18:M22"/>
-    <mergeCell ref="N18:N22"/>
-    <mergeCell ref="O18:O22"/>
-    <mergeCell ref="P18:P22"/>
+    <mergeCell ref="R38:R42"/>
+    <mergeCell ref="A43:A47"/>
+    <mergeCell ref="B43:B47"/>
+    <mergeCell ref="C43:C47"/>
+    <mergeCell ref="D43:D47"/>
+    <mergeCell ref="E43:E47"/>
+    <mergeCell ref="F43:F47"/>
+    <mergeCell ref="G43:G47"/>
+    <mergeCell ref="H43:H47"/>
+    <mergeCell ref="I43:I47"/>
+    <mergeCell ref="P13:P17"/>
+    <mergeCell ref="Q13:Q17"/>
+    <mergeCell ref="A38:A42"/>
+    <mergeCell ref="B38:B42"/>
+    <mergeCell ref="C38:C42"/>
+    <mergeCell ref="D38:D42"/>
+    <mergeCell ref="E38:E42"/>
+    <mergeCell ref="F38:F42"/>
+    <mergeCell ref="G38:G42"/>
+    <mergeCell ref="H38:H42"/>
+    <mergeCell ref="I38:I42"/>
+    <mergeCell ref="J38:J42"/>
+    <mergeCell ref="K38:K42"/>
+    <mergeCell ref="L38:L42"/>
+    <mergeCell ref="M38:M42"/>
+    <mergeCell ref="N38:N42"/>
+    <mergeCell ref="O38:O42"/>
+    <mergeCell ref="P38:P42"/>
+    <mergeCell ref="Q38:Q42"/>
     <mergeCell ref="Q18:Q22"/>
     <mergeCell ref="R18:R22"/>
     <mergeCell ref="Y12:Z12"/>
@@ -24340,47 +24656,171 @@
     <mergeCell ref="R33:R37"/>
     <mergeCell ref="N13:N17"/>
     <mergeCell ref="O13:O17"/>
-    <mergeCell ref="P13:P17"/>
-    <mergeCell ref="Q13:Q17"/>
-    <mergeCell ref="A38:A42"/>
-    <mergeCell ref="B38:B42"/>
-    <mergeCell ref="C38:C42"/>
-    <mergeCell ref="D38:D42"/>
-    <mergeCell ref="E38:E42"/>
-    <mergeCell ref="F38:F42"/>
-    <mergeCell ref="G38:G42"/>
-    <mergeCell ref="H38:H42"/>
-    <mergeCell ref="I38:I42"/>
-    <mergeCell ref="J38:J42"/>
-    <mergeCell ref="K38:K42"/>
-    <mergeCell ref="L38:L42"/>
-    <mergeCell ref="M38:M42"/>
-    <mergeCell ref="N38:N42"/>
-    <mergeCell ref="O38:O42"/>
-    <mergeCell ref="P38:P42"/>
-    <mergeCell ref="Q38:Q42"/>
-    <mergeCell ref="R38:R42"/>
-    <mergeCell ref="A43:A47"/>
-    <mergeCell ref="B43:B47"/>
-    <mergeCell ref="C43:C47"/>
-    <mergeCell ref="D43:D47"/>
-    <mergeCell ref="E43:E47"/>
-    <mergeCell ref="F43:F47"/>
-    <mergeCell ref="G43:G47"/>
-    <mergeCell ref="H43:H47"/>
-    <mergeCell ref="I43:I47"/>
-    <mergeCell ref="J43:J47"/>
-    <mergeCell ref="K43:K47"/>
-    <mergeCell ref="L43:L47"/>
-    <mergeCell ref="M43:M47"/>
-    <mergeCell ref="N43:N47"/>
-    <mergeCell ref="O43:O47"/>
-    <mergeCell ref="P43:P47"/>
-    <mergeCell ref="Q43:Q47"/>
-    <mergeCell ref="R43:R47"/>
+    <mergeCell ref="N28:N32"/>
+    <mergeCell ref="O28:O32"/>
+    <mergeCell ref="P28:P32"/>
+    <mergeCell ref="Q28:Q32"/>
+    <mergeCell ref="R28:R32"/>
+    <mergeCell ref="H23:H27"/>
+    <mergeCell ref="O23:O27"/>
+    <mergeCell ref="N23:N27"/>
+    <mergeCell ref="M23:M27"/>
+    <mergeCell ref="J23:J27"/>
+    <mergeCell ref="K23:K27"/>
+    <mergeCell ref="L23:L27"/>
+    <mergeCell ref="J28:J32"/>
+    <mergeCell ref="K28:K32"/>
+    <mergeCell ref="L28:L32"/>
+    <mergeCell ref="M28:M32"/>
+    <mergeCell ref="I23:I27"/>
+    <mergeCell ref="P23:P27"/>
+    <mergeCell ref="Q23:Q27"/>
+    <mergeCell ref="B28:B32"/>
+    <mergeCell ref="C28:C32"/>
+    <mergeCell ref="D28:D32"/>
+    <mergeCell ref="E28:E32"/>
+    <mergeCell ref="F28:F32"/>
+    <mergeCell ref="G28:G32"/>
+    <mergeCell ref="H28:H32"/>
+    <mergeCell ref="I28:I32"/>
+    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="B13:B17"/>
+    <mergeCell ref="C13:C17"/>
+    <mergeCell ref="D13:D17"/>
+    <mergeCell ref="E13:E17"/>
+    <mergeCell ref="F13:F17"/>
+    <mergeCell ref="G13:G17"/>
+    <mergeCell ref="H13:H17"/>
+    <mergeCell ref="I13:I17"/>
+    <mergeCell ref="A18:A22"/>
+    <mergeCell ref="B18:B22"/>
+    <mergeCell ref="C18:C22"/>
+    <mergeCell ref="D18:D22"/>
+    <mergeCell ref="E18:E22"/>
+    <mergeCell ref="F18:F22"/>
+    <mergeCell ref="G18:G22"/>
+    <mergeCell ref="O8:W8"/>
+    <mergeCell ref="W4:X6"/>
+    <mergeCell ref="G7:X7"/>
+    <mergeCell ref="A9:X9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D23:D27"/>
+    <mergeCell ref="H10:M10"/>
+    <mergeCell ref="J13:J17"/>
+    <mergeCell ref="K13:K17"/>
+    <mergeCell ref="L13:L17"/>
+    <mergeCell ref="M13:M17"/>
+    <mergeCell ref="R13:R17"/>
+    <mergeCell ref="H18:H22"/>
+    <mergeCell ref="I18:I22"/>
+    <mergeCell ref="J18:J22"/>
+    <mergeCell ref="K18:K22"/>
+    <mergeCell ref="L18:L22"/>
+    <mergeCell ref="M18:M22"/>
+    <mergeCell ref="N18:N22"/>
+    <mergeCell ref="O18:O22"/>
+    <mergeCell ref="P18:P22"/>
+    <mergeCell ref="A23:A27"/>
+    <mergeCell ref="B23:B27"/>
+    <mergeCell ref="R23:R27"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="G23:G27"/>
+    <mergeCell ref="C23:C27"/>
+    <mergeCell ref="S60:X60"/>
+    <mergeCell ref="E60:F61"/>
+    <mergeCell ref="G60:G61"/>
+    <mergeCell ref="H60:M60"/>
+    <mergeCell ref="R60:R61"/>
+    <mergeCell ref="L48:L52"/>
+    <mergeCell ref="M48:M52"/>
+    <mergeCell ref="N48:N52"/>
+    <mergeCell ref="O48:O52"/>
+    <mergeCell ref="P48:P52"/>
+    <mergeCell ref="Q48:Q52"/>
+    <mergeCell ref="R48:R52"/>
+    <mergeCell ref="Q10:Q11"/>
+    <mergeCell ref="O10:O11"/>
+    <mergeCell ref="P10:P11"/>
+    <mergeCell ref="A28:A32"/>
+    <mergeCell ref="A72:G72"/>
+    <mergeCell ref="H72:P72"/>
+    <mergeCell ref="A62:D66"/>
+    <mergeCell ref="E62:F66"/>
+    <mergeCell ref="A67:D71"/>
+    <mergeCell ref="A60:D61"/>
+    <mergeCell ref="D2:X2"/>
+    <mergeCell ref="R67:R71"/>
+    <mergeCell ref="Q67:Q71"/>
+    <mergeCell ref="O67:O71"/>
+    <mergeCell ref="P67:P71"/>
+    <mergeCell ref="M67:M71"/>
+    <mergeCell ref="N67:N71"/>
+    <mergeCell ref="E23:E27"/>
+    <mergeCell ref="F23:F27"/>
+    <mergeCell ref="S10:X11"/>
+    <mergeCell ref="R10:R11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="E67:F71"/>
+    <mergeCell ref="G67:G71"/>
+    <mergeCell ref="K67:K71"/>
+    <mergeCell ref="I67:I71"/>
+    <mergeCell ref="J67:J71"/>
+    <mergeCell ref="M62:M66"/>
+    <mergeCell ref="L62:L66"/>
+    <mergeCell ref="P62:P66"/>
+    <mergeCell ref="H67:H71"/>
+    <mergeCell ref="Y62:Y66"/>
+    <mergeCell ref="A59:W59"/>
+    <mergeCell ref="G62:G66"/>
+    <mergeCell ref="B2:C4"/>
+    <mergeCell ref="B5:C7"/>
+    <mergeCell ref="D3:F7"/>
+    <mergeCell ref="G3:N3"/>
+    <mergeCell ref="G4:N4"/>
+    <mergeCell ref="G5:N5"/>
+    <mergeCell ref="G6:N6"/>
+    <mergeCell ref="O3:V3"/>
+    <mergeCell ref="O4:V4"/>
+    <mergeCell ref="O5:V5"/>
+    <mergeCell ref="O6:V6"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="O62:O66"/>
+    <mergeCell ref="N62:N66"/>
+    <mergeCell ref="O60:O61"/>
+    <mergeCell ref="P60:P61"/>
+    <mergeCell ref="Q60:Q61"/>
+    <mergeCell ref="H62:H66"/>
+    <mergeCell ref="I62:I66"/>
+    <mergeCell ref="K62:K66"/>
+    <mergeCell ref="J62:J66"/>
+    <mergeCell ref="A48:A52"/>
+    <mergeCell ref="B48:B52"/>
+    <mergeCell ref="C48:C52"/>
+    <mergeCell ref="D48:D52"/>
+    <mergeCell ref="E48:E52"/>
+    <mergeCell ref="F48:F52"/>
+    <mergeCell ref="G48:G52"/>
+    <mergeCell ref="H48:H52"/>
+    <mergeCell ref="I48:I52"/>
+    <mergeCell ref="J48:J52"/>
+    <mergeCell ref="K48:K52"/>
+    <mergeCell ref="A53:A57"/>
+    <mergeCell ref="B53:B57"/>
+    <mergeCell ref="C53:C57"/>
+    <mergeCell ref="D53:D57"/>
+    <mergeCell ref="E53:E57"/>
+    <mergeCell ref="F53:F57"/>
+    <mergeCell ref="G53:G57"/>
+    <mergeCell ref="H53:H57"/>
+    <mergeCell ref="I53:I57"/>
   </mergeCells>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O57:O66">
+  <dataValidations disablePrompts="1" count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O62:O71">
       <formula1>Actividad</formula1>
     </dataValidation>
   </dataValidations>
@@ -24422,48 +24862,48 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C1" s="46" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C2" s="46" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="46" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="46" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
